--- a/server/20대_개표현황.xlsx
+++ b/server/20대_개표현황.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kimtaehyeong/Desktop/presidential-election/server/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20D3DC58-F3FD-EF4C-B2B1-526838D66F6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF1BF504-AB00-0843-9675-0C7789D000D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16280" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="전국" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4687" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4271" uniqueCount="265">
   <si>
     <t>시도명</t>
   </si>
@@ -857,6 +857,7 @@
       <b/>
       <sz val="11"/>
       <name val="맑은 고딕"/>
+      <family val="2"/>
       <charset val="129"/>
     </font>
   </fonts>
@@ -1204,8 +1205,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:Q19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
@@ -1268,52 +1269,52 @@
         <v>17</v>
       </c>
       <c r="B2">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="C2">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="D2">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="E2">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="F2">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="G2">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="H2">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="I2">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="J2">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="K2">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="L2">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="M2">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="N2">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="O2">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="P2">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="Q2">
-        <v>1000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -1321,52 +1322,52 @@
         <v>20</v>
       </c>
       <c r="B3">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="C3">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="D3">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="E3">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="F3">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="G3">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="H3">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="I3">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="J3">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="K3">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="L3">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="M3">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="N3">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="O3">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="P3">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="Q3">
-        <v>1000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -1374,52 +1375,52 @@
         <v>21</v>
       </c>
       <c r="B4">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="C4">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="D4">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="E4">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="F4">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="G4">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="H4">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="I4">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="J4">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="K4">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="L4">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="M4">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="N4">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="O4">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="P4">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="Q4">
-        <v>1000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -1427,52 +1428,52 @@
         <v>22</v>
       </c>
       <c r="B5">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="C5">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="D5">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="E5">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="F5">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="G5">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="H5">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="I5">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="J5">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="K5">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="L5">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="M5">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="N5">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="O5">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="P5">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="Q5">
-        <v>1000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1480,52 +1481,52 @@
         <v>23</v>
       </c>
       <c r="B6">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="C6">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="D6">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="E6">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="F6">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="G6">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="H6">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="I6">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="J6">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="K6">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="L6">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="M6">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="N6">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="O6">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="P6">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="Q6">
-        <v>1000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1533,52 +1534,52 @@
         <v>24</v>
       </c>
       <c r="B7">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="C7">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="D7">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="E7">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="F7">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="G7">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="H7">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="I7">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="J7">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="K7">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="L7">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="M7">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="N7">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="O7">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="P7">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="Q7">
-        <v>1000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1586,52 +1587,52 @@
         <v>25</v>
       </c>
       <c r="B8">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="C8">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="D8">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="E8">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="F8">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="G8">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="H8">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="I8">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="J8">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="K8">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="L8">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="M8">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="N8">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="O8">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="P8">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="Q8">
-        <v>1000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1639,52 +1640,52 @@
         <v>26</v>
       </c>
       <c r="B9">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="C9">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="D9">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="E9">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="F9">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="G9">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="H9">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="I9">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="J9">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="K9">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="L9">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="M9">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="N9">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="O9">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="P9">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="Q9">
-        <v>1000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1692,52 +1693,52 @@
         <v>27</v>
       </c>
       <c r="B10">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="C10">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="D10">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="E10">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="F10">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="G10">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="H10">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="I10">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="J10">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="K10">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="L10">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="M10">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="N10">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="O10">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="P10">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="Q10">
-        <v>1000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1745,52 +1746,52 @@
         <v>28</v>
       </c>
       <c r="B11">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="C11">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="D11">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="E11">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="F11">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="G11">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="H11">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="I11">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="J11">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="K11">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="L11">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="M11">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="N11">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="O11">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="P11">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="Q11">
-        <v>1000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1798,52 +1799,52 @@
         <v>29</v>
       </c>
       <c r="B12">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="C12">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="D12">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="E12">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="F12">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="G12">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="H12">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="I12">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="J12">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="K12">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="L12">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="M12">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="N12">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="O12">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="P12">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="Q12">
-        <v>1000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1851,52 +1852,52 @@
         <v>30</v>
       </c>
       <c r="B13">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="C13">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="D13">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="E13">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="F13">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="G13">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="H13">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="I13">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="J13">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="K13">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="L13">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="M13">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="N13">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="O13">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="P13">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="Q13">
-        <v>1000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1904,52 +1905,52 @@
         <v>31</v>
       </c>
       <c r="B14">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="C14">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="D14">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="E14">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="F14">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="G14">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="H14">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="I14">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="J14">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="K14">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="L14">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="M14">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="N14">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="O14">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="P14">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="Q14">
-        <v>1000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1957,52 +1958,52 @@
         <v>32</v>
       </c>
       <c r="B15">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="C15">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="D15">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="E15">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="F15">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="G15">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="H15">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="I15">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="J15">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="K15">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="L15">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="M15">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="N15">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="O15">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="P15">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="Q15">
-        <v>1000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -2010,52 +2011,52 @@
         <v>33</v>
       </c>
       <c r="B16">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="C16">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="D16">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="E16">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="F16">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="G16">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="H16">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="I16">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="J16">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="K16">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="L16">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="M16">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="N16">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="O16">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="P16">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="Q16">
-        <v>1000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -2063,52 +2064,52 @@
         <v>34</v>
       </c>
       <c r="B17">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="C17">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="D17">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="E17">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="F17">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="G17">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="H17">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="I17">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="J17">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="K17">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="L17">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="M17">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="N17">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="O17">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="P17">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="Q17">
-        <v>1000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -2116,52 +2117,52 @@
         <v>35</v>
       </c>
       <c r="B18">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="C18">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="D18">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="E18">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="F18">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="G18">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="H18">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="I18">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="J18">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="K18">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="L18">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="M18">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="N18">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="O18">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="P18">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="Q18">
-        <v>1000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -2169,52 +2170,52 @@
         <v>36</v>
       </c>
       <c r="B19">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="C19">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="D19">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="E19">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="F19">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="G19">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="H19">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="I19">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="J19">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="K19">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="L19">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="M19">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="N19">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="O19">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="P19">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="Q19">
-        <v>1000</v>
+        <v>2000</v>
       </c>
     </row>
   </sheetData>
@@ -12582,7 +12583,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Q27"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:Q27"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <sheetData>
@@ -12643,1378 +12646,1378 @@
       <c r="A2" t="s">
         <v>17</v>
       </c>
-      <c r="B2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L2" t="s">
-        <v>18</v>
-      </c>
-      <c r="M2" t="s">
-        <v>18</v>
-      </c>
-      <c r="N2" t="s">
-        <v>18</v>
-      </c>
-      <c r="O2" t="s">
-        <v>18</v>
-      </c>
-      <c r="P2" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>19</v>
+      <c r="B2">
+        <v>2000</v>
+      </c>
+      <c r="C2">
+        <v>2000</v>
+      </c>
+      <c r="D2">
+        <v>2000</v>
+      </c>
+      <c r="E2">
+        <v>2000</v>
+      </c>
+      <c r="F2">
+        <v>2000</v>
+      </c>
+      <c r="G2">
+        <v>2000</v>
+      </c>
+      <c r="H2">
+        <v>2000</v>
+      </c>
+      <c r="I2">
+        <v>2000</v>
+      </c>
+      <c r="J2">
+        <v>2000</v>
+      </c>
+      <c r="K2">
+        <v>2000</v>
+      </c>
+      <c r="L2">
+        <v>2000</v>
+      </c>
+      <c r="M2">
+        <v>2000</v>
+      </c>
+      <c r="N2">
+        <v>2000</v>
+      </c>
+      <c r="O2">
+        <v>2000</v>
+      </c>
+      <c r="P2">
+        <v>2000</v>
+      </c>
+      <c r="Q2">
+        <v>2000</v>
       </c>
     </row>
     <row r="3" spans="1:17">
       <c r="A3" t="s">
         <v>38</v>
       </c>
-      <c r="B3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K3" t="s">
-        <v>18</v>
-      </c>
-      <c r="L3" t="s">
-        <v>18</v>
-      </c>
-      <c r="M3" t="s">
-        <v>18</v>
-      </c>
-      <c r="N3" t="s">
-        <v>18</v>
-      </c>
-      <c r="O3" t="s">
-        <v>18</v>
-      </c>
-      <c r="P3" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>19</v>
+      <c r="B3">
+        <v>2000</v>
+      </c>
+      <c r="C3">
+        <v>2000</v>
+      </c>
+      <c r="D3">
+        <v>2000</v>
+      </c>
+      <c r="E3">
+        <v>2000</v>
+      </c>
+      <c r="F3">
+        <v>2000</v>
+      </c>
+      <c r="G3">
+        <v>2000</v>
+      </c>
+      <c r="H3">
+        <v>2000</v>
+      </c>
+      <c r="I3">
+        <v>2000</v>
+      </c>
+      <c r="J3">
+        <v>2000</v>
+      </c>
+      <c r="K3">
+        <v>2000</v>
+      </c>
+      <c r="L3">
+        <v>2000</v>
+      </c>
+      <c r="M3">
+        <v>2000</v>
+      </c>
+      <c r="N3">
+        <v>2000</v>
+      </c>
+      <c r="O3">
+        <v>2000</v>
+      </c>
+      <c r="P3">
+        <v>2000</v>
+      </c>
+      <c r="Q3">
+        <v>2000</v>
       </c>
     </row>
     <row r="4" spans="1:17">
       <c r="A4" t="s">
         <v>39</v>
       </c>
-      <c r="B4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I4" t="s">
-        <v>18</v>
-      </c>
-      <c r="J4" t="s">
-        <v>18</v>
-      </c>
-      <c r="K4" t="s">
-        <v>18</v>
-      </c>
-      <c r="L4" t="s">
-        <v>18</v>
-      </c>
-      <c r="M4" t="s">
-        <v>18</v>
-      </c>
-      <c r="N4" t="s">
-        <v>18</v>
-      </c>
-      <c r="O4" t="s">
-        <v>18</v>
-      </c>
-      <c r="P4" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>19</v>
+      <c r="B4">
+        <v>2000</v>
+      </c>
+      <c r="C4">
+        <v>2000</v>
+      </c>
+      <c r="D4">
+        <v>2000</v>
+      </c>
+      <c r="E4">
+        <v>2000</v>
+      </c>
+      <c r="F4">
+        <v>2000</v>
+      </c>
+      <c r="G4">
+        <v>2000</v>
+      </c>
+      <c r="H4">
+        <v>2000</v>
+      </c>
+      <c r="I4">
+        <v>2000</v>
+      </c>
+      <c r="J4">
+        <v>2000</v>
+      </c>
+      <c r="K4">
+        <v>2000</v>
+      </c>
+      <c r="L4">
+        <v>2000</v>
+      </c>
+      <c r="M4">
+        <v>2000</v>
+      </c>
+      <c r="N4">
+        <v>2000</v>
+      </c>
+      <c r="O4">
+        <v>2000</v>
+      </c>
+      <c r="P4">
+        <v>2000</v>
+      </c>
+      <c r="Q4">
+        <v>2000</v>
       </c>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" t="s">
         <v>40</v>
       </c>
-      <c r="B5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H5" t="s">
-        <v>18</v>
-      </c>
-      <c r="I5" t="s">
-        <v>18</v>
-      </c>
-      <c r="J5" t="s">
-        <v>18</v>
-      </c>
-      <c r="K5" t="s">
-        <v>18</v>
-      </c>
-      <c r="L5" t="s">
-        <v>18</v>
-      </c>
-      <c r="M5" t="s">
-        <v>18</v>
-      </c>
-      <c r="N5" t="s">
-        <v>18</v>
-      </c>
-      <c r="O5" t="s">
-        <v>18</v>
-      </c>
-      <c r="P5" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>19</v>
+      <c r="B5">
+        <v>2000</v>
+      </c>
+      <c r="C5">
+        <v>2000</v>
+      </c>
+      <c r="D5">
+        <v>2000</v>
+      </c>
+      <c r="E5">
+        <v>2000</v>
+      </c>
+      <c r="F5">
+        <v>2000</v>
+      </c>
+      <c r="G5">
+        <v>2000</v>
+      </c>
+      <c r="H5">
+        <v>2000</v>
+      </c>
+      <c r="I5">
+        <v>2000</v>
+      </c>
+      <c r="J5">
+        <v>2000</v>
+      </c>
+      <c r="K5">
+        <v>2000</v>
+      </c>
+      <c r="L5">
+        <v>2000</v>
+      </c>
+      <c r="M5">
+        <v>2000</v>
+      </c>
+      <c r="N5">
+        <v>2000</v>
+      </c>
+      <c r="O5">
+        <v>2000</v>
+      </c>
+      <c r="P5">
+        <v>2000</v>
+      </c>
+      <c r="Q5">
+        <v>2000</v>
       </c>
     </row>
     <row r="6" spans="1:17">
       <c r="A6" t="s">
         <v>41</v>
       </c>
-      <c r="B6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I6" t="s">
-        <v>18</v>
-      </c>
-      <c r="J6" t="s">
-        <v>18</v>
-      </c>
-      <c r="K6" t="s">
-        <v>18</v>
-      </c>
-      <c r="L6" t="s">
-        <v>18</v>
-      </c>
-      <c r="M6" t="s">
-        <v>18</v>
-      </c>
-      <c r="N6" t="s">
-        <v>18</v>
-      </c>
-      <c r="O6" t="s">
-        <v>18</v>
-      </c>
-      <c r="P6" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>19</v>
+      <c r="B6">
+        <v>2000</v>
+      </c>
+      <c r="C6">
+        <v>2000</v>
+      </c>
+      <c r="D6">
+        <v>2000</v>
+      </c>
+      <c r="E6">
+        <v>2000</v>
+      </c>
+      <c r="F6">
+        <v>2000</v>
+      </c>
+      <c r="G6">
+        <v>2000</v>
+      </c>
+      <c r="H6">
+        <v>2000</v>
+      </c>
+      <c r="I6">
+        <v>2000</v>
+      </c>
+      <c r="J6">
+        <v>2000</v>
+      </c>
+      <c r="K6">
+        <v>2000</v>
+      </c>
+      <c r="L6">
+        <v>2000</v>
+      </c>
+      <c r="M6">
+        <v>2000</v>
+      </c>
+      <c r="N6">
+        <v>2000</v>
+      </c>
+      <c r="O6">
+        <v>2000</v>
+      </c>
+      <c r="P6">
+        <v>2000</v>
+      </c>
+      <c r="Q6">
+        <v>2000</v>
       </c>
     </row>
     <row r="7" spans="1:17">
       <c r="A7" t="s">
         <v>42</v>
       </c>
-      <c r="B7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H7" t="s">
-        <v>18</v>
-      </c>
-      <c r="I7" t="s">
-        <v>18</v>
-      </c>
-      <c r="J7" t="s">
-        <v>18</v>
-      </c>
-      <c r="K7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L7" t="s">
-        <v>18</v>
-      </c>
-      <c r="M7" t="s">
-        <v>18</v>
-      </c>
-      <c r="N7" t="s">
-        <v>18</v>
-      </c>
-      <c r="O7" t="s">
-        <v>18</v>
-      </c>
-      <c r="P7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>19</v>
+      <c r="B7">
+        <v>2000</v>
+      </c>
+      <c r="C7">
+        <v>2000</v>
+      </c>
+      <c r="D7">
+        <v>2000</v>
+      </c>
+      <c r="E7">
+        <v>2000</v>
+      </c>
+      <c r="F7">
+        <v>2000</v>
+      </c>
+      <c r="G7">
+        <v>2000</v>
+      </c>
+      <c r="H7">
+        <v>2000</v>
+      </c>
+      <c r="I7">
+        <v>2000</v>
+      </c>
+      <c r="J7">
+        <v>2000</v>
+      </c>
+      <c r="K7">
+        <v>2000</v>
+      </c>
+      <c r="L7">
+        <v>2000</v>
+      </c>
+      <c r="M7">
+        <v>2000</v>
+      </c>
+      <c r="N7">
+        <v>2000</v>
+      </c>
+      <c r="O7">
+        <v>2000</v>
+      </c>
+      <c r="P7">
+        <v>2000</v>
+      </c>
+      <c r="Q7">
+        <v>2000</v>
       </c>
     </row>
     <row r="8" spans="1:17">
       <c r="A8" t="s">
         <v>43</v>
       </c>
-      <c r="B8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" t="s">
-        <v>18</v>
-      </c>
-      <c r="F8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G8" t="s">
-        <v>18</v>
-      </c>
-      <c r="H8" t="s">
-        <v>18</v>
-      </c>
-      <c r="I8" t="s">
-        <v>18</v>
-      </c>
-      <c r="J8" t="s">
-        <v>18</v>
-      </c>
-      <c r="K8" t="s">
-        <v>18</v>
-      </c>
-      <c r="L8" t="s">
-        <v>18</v>
-      </c>
-      <c r="M8" t="s">
-        <v>18</v>
-      </c>
-      <c r="N8" t="s">
-        <v>18</v>
-      </c>
-      <c r="O8" t="s">
-        <v>18</v>
-      </c>
-      <c r="P8" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>19</v>
+      <c r="B8">
+        <v>2000</v>
+      </c>
+      <c r="C8">
+        <v>2000</v>
+      </c>
+      <c r="D8">
+        <v>2000</v>
+      </c>
+      <c r="E8">
+        <v>2000</v>
+      </c>
+      <c r="F8">
+        <v>2000</v>
+      </c>
+      <c r="G8">
+        <v>2000</v>
+      </c>
+      <c r="H8">
+        <v>2000</v>
+      </c>
+      <c r="I8">
+        <v>2000</v>
+      </c>
+      <c r="J8">
+        <v>2000</v>
+      </c>
+      <c r="K8">
+        <v>2000</v>
+      </c>
+      <c r="L8">
+        <v>2000</v>
+      </c>
+      <c r="M8">
+        <v>2000</v>
+      </c>
+      <c r="N8">
+        <v>2000</v>
+      </c>
+      <c r="O8">
+        <v>2000</v>
+      </c>
+      <c r="P8">
+        <v>2000</v>
+      </c>
+      <c r="Q8">
+        <v>2000</v>
       </c>
     </row>
     <row r="9" spans="1:17">
       <c r="A9" t="s">
         <v>44</v>
       </c>
-      <c r="B9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H9" t="s">
-        <v>18</v>
-      </c>
-      <c r="I9" t="s">
-        <v>18</v>
-      </c>
-      <c r="J9" t="s">
-        <v>18</v>
-      </c>
-      <c r="K9" t="s">
-        <v>18</v>
-      </c>
-      <c r="L9" t="s">
-        <v>18</v>
-      </c>
-      <c r="M9" t="s">
-        <v>18</v>
-      </c>
-      <c r="N9" t="s">
-        <v>18</v>
-      </c>
-      <c r="O9" t="s">
-        <v>18</v>
-      </c>
-      <c r="P9" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>19</v>
+      <c r="B9">
+        <v>2000</v>
+      </c>
+      <c r="C9">
+        <v>2000</v>
+      </c>
+      <c r="D9">
+        <v>2000</v>
+      </c>
+      <c r="E9">
+        <v>2000</v>
+      </c>
+      <c r="F9">
+        <v>2000</v>
+      </c>
+      <c r="G9">
+        <v>2000</v>
+      </c>
+      <c r="H9">
+        <v>2000</v>
+      </c>
+      <c r="I9">
+        <v>2000</v>
+      </c>
+      <c r="J9">
+        <v>2000</v>
+      </c>
+      <c r="K9">
+        <v>2000</v>
+      </c>
+      <c r="L9">
+        <v>2000</v>
+      </c>
+      <c r="M9">
+        <v>2000</v>
+      </c>
+      <c r="N9">
+        <v>2000</v>
+      </c>
+      <c r="O9">
+        <v>2000</v>
+      </c>
+      <c r="P9">
+        <v>2000</v>
+      </c>
+      <c r="Q9">
+        <v>2000</v>
       </c>
     </row>
     <row r="10" spans="1:17">
       <c r="A10" t="s">
         <v>45</v>
       </c>
-      <c r="B10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" t="s">
-        <v>18</v>
-      </c>
-      <c r="F10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H10" t="s">
-        <v>18</v>
-      </c>
-      <c r="I10" t="s">
-        <v>18</v>
-      </c>
-      <c r="J10" t="s">
-        <v>18</v>
-      </c>
-      <c r="K10" t="s">
-        <v>18</v>
-      </c>
-      <c r="L10" t="s">
-        <v>18</v>
-      </c>
-      <c r="M10" t="s">
-        <v>18</v>
-      </c>
-      <c r="N10" t="s">
-        <v>18</v>
-      </c>
-      <c r="O10" t="s">
-        <v>18</v>
-      </c>
-      <c r="P10" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>19</v>
+      <c r="B10">
+        <v>2000</v>
+      </c>
+      <c r="C10">
+        <v>2000</v>
+      </c>
+      <c r="D10">
+        <v>2000</v>
+      </c>
+      <c r="E10">
+        <v>2000</v>
+      </c>
+      <c r="F10">
+        <v>2000</v>
+      </c>
+      <c r="G10">
+        <v>2000</v>
+      </c>
+      <c r="H10">
+        <v>2000</v>
+      </c>
+      <c r="I10">
+        <v>2000</v>
+      </c>
+      <c r="J10">
+        <v>2000</v>
+      </c>
+      <c r="K10">
+        <v>2000</v>
+      </c>
+      <c r="L10">
+        <v>2000</v>
+      </c>
+      <c r="M10">
+        <v>2000</v>
+      </c>
+      <c r="N10">
+        <v>2000</v>
+      </c>
+      <c r="O10">
+        <v>2000</v>
+      </c>
+      <c r="P10">
+        <v>2000</v>
+      </c>
+      <c r="Q10">
+        <v>2000</v>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="A11" t="s">
         <v>46</v>
       </c>
-      <c r="B11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" t="s">
-        <v>18</v>
-      </c>
-      <c r="E11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G11" t="s">
-        <v>18</v>
-      </c>
-      <c r="H11" t="s">
-        <v>18</v>
-      </c>
-      <c r="I11" t="s">
-        <v>18</v>
-      </c>
-      <c r="J11" t="s">
-        <v>18</v>
-      </c>
-      <c r="K11" t="s">
-        <v>18</v>
-      </c>
-      <c r="L11" t="s">
-        <v>18</v>
-      </c>
-      <c r="M11" t="s">
-        <v>18</v>
-      </c>
-      <c r="N11" t="s">
-        <v>18</v>
-      </c>
-      <c r="O11" t="s">
-        <v>18</v>
-      </c>
-      <c r="P11" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>19</v>
+      <c r="B11">
+        <v>2000</v>
+      </c>
+      <c r="C11">
+        <v>2000</v>
+      </c>
+      <c r="D11">
+        <v>2000</v>
+      </c>
+      <c r="E11">
+        <v>2000</v>
+      </c>
+      <c r="F11">
+        <v>2000</v>
+      </c>
+      <c r="G11">
+        <v>2000</v>
+      </c>
+      <c r="H11">
+        <v>2000</v>
+      </c>
+      <c r="I11">
+        <v>2000</v>
+      </c>
+      <c r="J11">
+        <v>2000</v>
+      </c>
+      <c r="K11">
+        <v>2000</v>
+      </c>
+      <c r="L11">
+        <v>2000</v>
+      </c>
+      <c r="M11">
+        <v>2000</v>
+      </c>
+      <c r="N11">
+        <v>2000</v>
+      </c>
+      <c r="O11">
+        <v>2000</v>
+      </c>
+      <c r="P11">
+        <v>2000</v>
+      </c>
+      <c r="Q11">
+        <v>2000</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="A12" t="s">
         <v>47</v>
       </c>
-      <c r="B12" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12" t="s">
-        <v>18</v>
-      </c>
-      <c r="F12" t="s">
-        <v>18</v>
-      </c>
-      <c r="G12" t="s">
-        <v>18</v>
-      </c>
-      <c r="H12" t="s">
-        <v>18</v>
-      </c>
-      <c r="I12" t="s">
-        <v>18</v>
-      </c>
-      <c r="J12" t="s">
-        <v>18</v>
-      </c>
-      <c r="K12" t="s">
-        <v>18</v>
-      </c>
-      <c r="L12" t="s">
-        <v>18</v>
-      </c>
-      <c r="M12" t="s">
-        <v>18</v>
-      </c>
-      <c r="N12" t="s">
-        <v>18</v>
-      </c>
-      <c r="O12" t="s">
-        <v>18</v>
-      </c>
-      <c r="P12" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>19</v>
+      <c r="B12">
+        <v>2000</v>
+      </c>
+      <c r="C12">
+        <v>2000</v>
+      </c>
+      <c r="D12">
+        <v>2000</v>
+      </c>
+      <c r="E12">
+        <v>2000</v>
+      </c>
+      <c r="F12">
+        <v>2000</v>
+      </c>
+      <c r="G12">
+        <v>2000</v>
+      </c>
+      <c r="H12">
+        <v>2000</v>
+      </c>
+      <c r="I12">
+        <v>2000</v>
+      </c>
+      <c r="J12">
+        <v>2000</v>
+      </c>
+      <c r="K12">
+        <v>2000</v>
+      </c>
+      <c r="L12">
+        <v>2000</v>
+      </c>
+      <c r="M12">
+        <v>2000</v>
+      </c>
+      <c r="N12">
+        <v>2000</v>
+      </c>
+      <c r="O12">
+        <v>2000</v>
+      </c>
+      <c r="P12">
+        <v>2000</v>
+      </c>
+      <c r="Q12">
+        <v>2000</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="A13" t="s">
         <v>48</v>
       </c>
-      <c r="B13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" t="s">
-        <v>18</v>
-      </c>
-      <c r="D13" t="s">
-        <v>18</v>
-      </c>
-      <c r="E13" t="s">
-        <v>18</v>
-      </c>
-      <c r="F13" t="s">
-        <v>18</v>
-      </c>
-      <c r="G13" t="s">
-        <v>18</v>
-      </c>
-      <c r="H13" t="s">
-        <v>18</v>
-      </c>
-      <c r="I13" t="s">
-        <v>18</v>
-      </c>
-      <c r="J13" t="s">
-        <v>18</v>
-      </c>
-      <c r="K13" t="s">
-        <v>18</v>
-      </c>
-      <c r="L13" t="s">
-        <v>18</v>
-      </c>
-      <c r="M13" t="s">
-        <v>18</v>
-      </c>
-      <c r="N13" t="s">
-        <v>18</v>
-      </c>
-      <c r="O13" t="s">
-        <v>18</v>
-      </c>
-      <c r="P13" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>19</v>
+      <c r="B13">
+        <v>2000</v>
+      </c>
+      <c r="C13">
+        <v>2000</v>
+      </c>
+      <c r="D13">
+        <v>2000</v>
+      </c>
+      <c r="E13">
+        <v>2000</v>
+      </c>
+      <c r="F13">
+        <v>2000</v>
+      </c>
+      <c r="G13">
+        <v>2000</v>
+      </c>
+      <c r="H13">
+        <v>2000</v>
+      </c>
+      <c r="I13">
+        <v>2000</v>
+      </c>
+      <c r="J13">
+        <v>2000</v>
+      </c>
+      <c r="K13">
+        <v>2000</v>
+      </c>
+      <c r="L13">
+        <v>2000</v>
+      </c>
+      <c r="M13">
+        <v>2000</v>
+      </c>
+      <c r="N13">
+        <v>2000</v>
+      </c>
+      <c r="O13">
+        <v>2000</v>
+      </c>
+      <c r="P13">
+        <v>2000</v>
+      </c>
+      <c r="Q13">
+        <v>2000</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="A14" t="s">
         <v>49</v>
       </c>
-      <c r="B14" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" t="s">
-        <v>18</v>
-      </c>
-      <c r="D14" t="s">
-        <v>18</v>
-      </c>
-      <c r="E14" t="s">
-        <v>18</v>
-      </c>
-      <c r="F14" t="s">
-        <v>18</v>
-      </c>
-      <c r="G14" t="s">
-        <v>18</v>
-      </c>
-      <c r="H14" t="s">
-        <v>18</v>
-      </c>
-      <c r="I14" t="s">
-        <v>18</v>
-      </c>
-      <c r="J14" t="s">
-        <v>18</v>
-      </c>
-      <c r="K14" t="s">
-        <v>18</v>
-      </c>
-      <c r="L14" t="s">
-        <v>18</v>
-      </c>
-      <c r="M14" t="s">
-        <v>18</v>
-      </c>
-      <c r="N14" t="s">
-        <v>18</v>
-      </c>
-      <c r="O14" t="s">
-        <v>18</v>
-      </c>
-      <c r="P14" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>19</v>
+      <c r="B14">
+        <v>2000</v>
+      </c>
+      <c r="C14">
+        <v>2000</v>
+      </c>
+      <c r="D14">
+        <v>2000</v>
+      </c>
+      <c r="E14">
+        <v>2000</v>
+      </c>
+      <c r="F14">
+        <v>2000</v>
+      </c>
+      <c r="G14">
+        <v>2000</v>
+      </c>
+      <c r="H14">
+        <v>2000</v>
+      </c>
+      <c r="I14">
+        <v>2000</v>
+      </c>
+      <c r="J14">
+        <v>2000</v>
+      </c>
+      <c r="K14">
+        <v>2000</v>
+      </c>
+      <c r="L14">
+        <v>2000</v>
+      </c>
+      <c r="M14">
+        <v>2000</v>
+      </c>
+      <c r="N14">
+        <v>2000</v>
+      </c>
+      <c r="O14">
+        <v>2000</v>
+      </c>
+      <c r="P14">
+        <v>2000</v>
+      </c>
+      <c r="Q14">
+        <v>2000</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="A15" t="s">
         <v>50</v>
       </c>
-      <c r="B15" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" t="s">
-        <v>18</v>
-      </c>
-      <c r="D15" t="s">
-        <v>18</v>
-      </c>
-      <c r="E15" t="s">
-        <v>18</v>
-      </c>
-      <c r="F15" t="s">
-        <v>18</v>
-      </c>
-      <c r="G15" t="s">
-        <v>18</v>
-      </c>
-      <c r="H15" t="s">
-        <v>18</v>
-      </c>
-      <c r="I15" t="s">
-        <v>18</v>
-      </c>
-      <c r="J15" t="s">
-        <v>18</v>
-      </c>
-      <c r="K15" t="s">
-        <v>18</v>
-      </c>
-      <c r="L15" t="s">
-        <v>18</v>
-      </c>
-      <c r="M15" t="s">
-        <v>18</v>
-      </c>
-      <c r="N15" t="s">
-        <v>18</v>
-      </c>
-      <c r="O15" t="s">
-        <v>18</v>
-      </c>
-      <c r="P15" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>19</v>
+      <c r="B15">
+        <v>2000</v>
+      </c>
+      <c r="C15">
+        <v>2000</v>
+      </c>
+      <c r="D15">
+        <v>2000</v>
+      </c>
+      <c r="E15">
+        <v>2000</v>
+      </c>
+      <c r="F15">
+        <v>2000</v>
+      </c>
+      <c r="G15">
+        <v>2000</v>
+      </c>
+      <c r="H15">
+        <v>2000</v>
+      </c>
+      <c r="I15">
+        <v>2000</v>
+      </c>
+      <c r="J15">
+        <v>2000</v>
+      </c>
+      <c r="K15">
+        <v>2000</v>
+      </c>
+      <c r="L15">
+        <v>2000</v>
+      </c>
+      <c r="M15">
+        <v>2000</v>
+      </c>
+      <c r="N15">
+        <v>2000</v>
+      </c>
+      <c r="O15">
+        <v>2000</v>
+      </c>
+      <c r="P15">
+        <v>2000</v>
+      </c>
+      <c r="Q15">
+        <v>2000</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="A16" t="s">
         <v>51</v>
       </c>
-      <c r="B16" t="s">
-        <v>18</v>
-      </c>
-      <c r="C16" t="s">
-        <v>18</v>
-      </c>
-      <c r="D16" t="s">
-        <v>18</v>
-      </c>
-      <c r="E16" t="s">
-        <v>18</v>
-      </c>
-      <c r="F16" t="s">
-        <v>18</v>
-      </c>
-      <c r="G16" t="s">
-        <v>18</v>
-      </c>
-      <c r="H16" t="s">
-        <v>18</v>
-      </c>
-      <c r="I16" t="s">
-        <v>18</v>
-      </c>
-      <c r="J16" t="s">
-        <v>18</v>
-      </c>
-      <c r="K16" t="s">
-        <v>18</v>
-      </c>
-      <c r="L16" t="s">
-        <v>18</v>
-      </c>
-      <c r="M16" t="s">
-        <v>18</v>
-      </c>
-      <c r="N16" t="s">
-        <v>18</v>
-      </c>
-      <c r="O16" t="s">
-        <v>18</v>
-      </c>
-      <c r="P16" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>19</v>
+      <c r="B16">
+        <v>2000</v>
+      </c>
+      <c r="C16">
+        <v>2000</v>
+      </c>
+      <c r="D16">
+        <v>2000</v>
+      </c>
+      <c r="E16">
+        <v>2000</v>
+      </c>
+      <c r="F16">
+        <v>2000</v>
+      </c>
+      <c r="G16">
+        <v>2000</v>
+      </c>
+      <c r="H16">
+        <v>2000</v>
+      </c>
+      <c r="I16">
+        <v>2000</v>
+      </c>
+      <c r="J16">
+        <v>2000</v>
+      </c>
+      <c r="K16">
+        <v>2000</v>
+      </c>
+      <c r="L16">
+        <v>2000</v>
+      </c>
+      <c r="M16">
+        <v>2000</v>
+      </c>
+      <c r="N16">
+        <v>2000</v>
+      </c>
+      <c r="O16">
+        <v>2000</v>
+      </c>
+      <c r="P16">
+        <v>2000</v>
+      </c>
+      <c r="Q16">
+        <v>2000</v>
       </c>
     </row>
     <row r="17" spans="1:17">
       <c r="A17" t="s">
         <v>52</v>
       </c>
-      <c r="B17" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17" t="s">
-        <v>18</v>
-      </c>
-      <c r="D17" t="s">
-        <v>18</v>
-      </c>
-      <c r="E17" t="s">
-        <v>18</v>
-      </c>
-      <c r="F17" t="s">
-        <v>18</v>
-      </c>
-      <c r="G17" t="s">
-        <v>18</v>
-      </c>
-      <c r="H17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I17" t="s">
-        <v>18</v>
-      </c>
-      <c r="J17" t="s">
-        <v>18</v>
-      </c>
-      <c r="K17" t="s">
-        <v>18</v>
-      </c>
-      <c r="L17" t="s">
-        <v>18</v>
-      </c>
-      <c r="M17" t="s">
-        <v>18</v>
-      </c>
-      <c r="N17" t="s">
-        <v>18</v>
-      </c>
-      <c r="O17" t="s">
-        <v>18</v>
-      </c>
-      <c r="P17" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>19</v>
+      <c r="B17">
+        <v>2000</v>
+      </c>
+      <c r="C17">
+        <v>2000</v>
+      </c>
+      <c r="D17">
+        <v>2000</v>
+      </c>
+      <c r="E17">
+        <v>2000</v>
+      </c>
+      <c r="F17">
+        <v>2000</v>
+      </c>
+      <c r="G17">
+        <v>2000</v>
+      </c>
+      <c r="H17">
+        <v>2000</v>
+      </c>
+      <c r="I17">
+        <v>2000</v>
+      </c>
+      <c r="J17">
+        <v>2000</v>
+      </c>
+      <c r="K17">
+        <v>2000</v>
+      </c>
+      <c r="L17">
+        <v>2000</v>
+      </c>
+      <c r="M17">
+        <v>2000</v>
+      </c>
+      <c r="N17">
+        <v>2000</v>
+      </c>
+      <c r="O17">
+        <v>2000</v>
+      </c>
+      <c r="P17">
+        <v>2000</v>
+      </c>
+      <c r="Q17">
+        <v>2000</v>
       </c>
     </row>
     <row r="18" spans="1:17">
       <c r="A18" t="s">
         <v>53</v>
       </c>
-      <c r="B18" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" t="s">
-        <v>18</v>
-      </c>
-      <c r="D18" t="s">
-        <v>18</v>
-      </c>
-      <c r="E18" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" t="s">
-        <v>18</v>
-      </c>
-      <c r="H18" t="s">
-        <v>18</v>
-      </c>
-      <c r="I18" t="s">
-        <v>18</v>
-      </c>
-      <c r="J18" t="s">
-        <v>18</v>
-      </c>
-      <c r="K18" t="s">
-        <v>18</v>
-      </c>
-      <c r="L18" t="s">
-        <v>18</v>
-      </c>
-      <c r="M18" t="s">
-        <v>18</v>
-      </c>
-      <c r="N18" t="s">
-        <v>18</v>
-      </c>
-      <c r="O18" t="s">
-        <v>18</v>
-      </c>
-      <c r="P18" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>19</v>
+      <c r="B18">
+        <v>2000</v>
+      </c>
+      <c r="C18">
+        <v>2000</v>
+      </c>
+      <c r="D18">
+        <v>2000</v>
+      </c>
+      <c r="E18">
+        <v>2000</v>
+      </c>
+      <c r="F18">
+        <v>2000</v>
+      </c>
+      <c r="G18">
+        <v>2000</v>
+      </c>
+      <c r="H18">
+        <v>2000</v>
+      </c>
+      <c r="I18">
+        <v>2000</v>
+      </c>
+      <c r="J18">
+        <v>2000</v>
+      </c>
+      <c r="K18">
+        <v>2000</v>
+      </c>
+      <c r="L18">
+        <v>2000</v>
+      </c>
+      <c r="M18">
+        <v>2000</v>
+      </c>
+      <c r="N18">
+        <v>2000</v>
+      </c>
+      <c r="O18">
+        <v>2000</v>
+      </c>
+      <c r="P18">
+        <v>2000</v>
+      </c>
+      <c r="Q18">
+        <v>2000</v>
       </c>
     </row>
     <row r="19" spans="1:17">
       <c r="A19" t="s">
         <v>54</v>
       </c>
-      <c r="B19" t="s">
-        <v>18</v>
-      </c>
-      <c r="C19" t="s">
-        <v>18</v>
-      </c>
-      <c r="D19" t="s">
-        <v>18</v>
-      </c>
-      <c r="E19" t="s">
-        <v>18</v>
-      </c>
-      <c r="F19" t="s">
-        <v>18</v>
-      </c>
-      <c r="G19" t="s">
-        <v>18</v>
-      </c>
-      <c r="H19" t="s">
-        <v>18</v>
-      </c>
-      <c r="I19" t="s">
-        <v>18</v>
-      </c>
-      <c r="J19" t="s">
-        <v>18</v>
-      </c>
-      <c r="K19" t="s">
-        <v>18</v>
-      </c>
-      <c r="L19" t="s">
-        <v>18</v>
-      </c>
-      <c r="M19" t="s">
-        <v>18</v>
-      </c>
-      <c r="N19" t="s">
-        <v>18</v>
-      </c>
-      <c r="O19" t="s">
-        <v>18</v>
-      </c>
-      <c r="P19" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>19</v>
+      <c r="B19">
+        <v>2000</v>
+      </c>
+      <c r="C19">
+        <v>2000</v>
+      </c>
+      <c r="D19">
+        <v>2000</v>
+      </c>
+      <c r="E19">
+        <v>2000</v>
+      </c>
+      <c r="F19">
+        <v>2000</v>
+      </c>
+      <c r="G19">
+        <v>2000</v>
+      </c>
+      <c r="H19">
+        <v>2000</v>
+      </c>
+      <c r="I19">
+        <v>2000</v>
+      </c>
+      <c r="J19">
+        <v>2000</v>
+      </c>
+      <c r="K19">
+        <v>2000</v>
+      </c>
+      <c r="L19">
+        <v>2000</v>
+      </c>
+      <c r="M19">
+        <v>2000</v>
+      </c>
+      <c r="N19">
+        <v>2000</v>
+      </c>
+      <c r="O19">
+        <v>2000</v>
+      </c>
+      <c r="P19">
+        <v>2000</v>
+      </c>
+      <c r="Q19">
+        <v>2000</v>
       </c>
     </row>
     <row r="20" spans="1:17">
       <c r="A20" t="s">
         <v>55</v>
       </c>
-      <c r="B20" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" t="s">
-        <v>18</v>
-      </c>
-      <c r="D20" t="s">
-        <v>18</v>
-      </c>
-      <c r="E20" t="s">
-        <v>18</v>
-      </c>
-      <c r="F20" t="s">
-        <v>18</v>
-      </c>
-      <c r="G20" t="s">
-        <v>18</v>
-      </c>
-      <c r="H20" t="s">
-        <v>18</v>
-      </c>
-      <c r="I20" t="s">
-        <v>18</v>
-      </c>
-      <c r="J20" t="s">
-        <v>18</v>
-      </c>
-      <c r="K20" t="s">
-        <v>18</v>
-      </c>
-      <c r="L20" t="s">
-        <v>18</v>
-      </c>
-      <c r="M20" t="s">
-        <v>18</v>
-      </c>
-      <c r="N20" t="s">
-        <v>18</v>
-      </c>
-      <c r="O20" t="s">
-        <v>18</v>
-      </c>
-      <c r="P20" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q20" t="s">
-        <v>19</v>
+      <c r="B20">
+        <v>2000</v>
+      </c>
+      <c r="C20">
+        <v>2000</v>
+      </c>
+      <c r="D20">
+        <v>2000</v>
+      </c>
+      <c r="E20">
+        <v>2000</v>
+      </c>
+      <c r="F20">
+        <v>2000</v>
+      </c>
+      <c r="G20">
+        <v>2000</v>
+      </c>
+      <c r="H20">
+        <v>2000</v>
+      </c>
+      <c r="I20">
+        <v>2000</v>
+      </c>
+      <c r="J20">
+        <v>2000</v>
+      </c>
+      <c r="K20">
+        <v>2000</v>
+      </c>
+      <c r="L20">
+        <v>2000</v>
+      </c>
+      <c r="M20">
+        <v>2000</v>
+      </c>
+      <c r="N20">
+        <v>2000</v>
+      </c>
+      <c r="O20">
+        <v>2000</v>
+      </c>
+      <c r="P20">
+        <v>2000</v>
+      </c>
+      <c r="Q20">
+        <v>2000</v>
       </c>
     </row>
     <row r="21" spans="1:17">
       <c r="A21" t="s">
         <v>56</v>
       </c>
-      <c r="B21" t="s">
-        <v>18</v>
-      </c>
-      <c r="C21" t="s">
-        <v>18</v>
-      </c>
-      <c r="D21" t="s">
-        <v>18</v>
-      </c>
-      <c r="E21" t="s">
-        <v>18</v>
-      </c>
-      <c r="F21" t="s">
-        <v>18</v>
-      </c>
-      <c r="G21" t="s">
-        <v>18</v>
-      </c>
-      <c r="H21" t="s">
-        <v>18</v>
-      </c>
-      <c r="I21" t="s">
-        <v>18</v>
-      </c>
-      <c r="J21" t="s">
-        <v>18</v>
-      </c>
-      <c r="K21" t="s">
-        <v>18</v>
-      </c>
-      <c r="L21" t="s">
-        <v>18</v>
-      </c>
-      <c r="M21" t="s">
-        <v>18</v>
-      </c>
-      <c r="N21" t="s">
-        <v>18</v>
-      </c>
-      <c r="O21" t="s">
-        <v>18</v>
-      </c>
-      <c r="P21" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>19</v>
+      <c r="B21">
+        <v>2000</v>
+      </c>
+      <c r="C21">
+        <v>2000</v>
+      </c>
+      <c r="D21">
+        <v>2000</v>
+      </c>
+      <c r="E21">
+        <v>2000</v>
+      </c>
+      <c r="F21">
+        <v>2000</v>
+      </c>
+      <c r="G21">
+        <v>2000</v>
+      </c>
+      <c r="H21">
+        <v>2000</v>
+      </c>
+      <c r="I21">
+        <v>2000</v>
+      </c>
+      <c r="J21">
+        <v>2000</v>
+      </c>
+      <c r="K21">
+        <v>2000</v>
+      </c>
+      <c r="L21">
+        <v>2000</v>
+      </c>
+      <c r="M21">
+        <v>2000</v>
+      </c>
+      <c r="N21">
+        <v>2000</v>
+      </c>
+      <c r="O21">
+        <v>2000</v>
+      </c>
+      <c r="P21">
+        <v>2000</v>
+      </c>
+      <c r="Q21">
+        <v>2000</v>
       </c>
     </row>
     <row r="22" spans="1:17">
       <c r="A22" t="s">
         <v>57</v>
       </c>
-      <c r="B22" t="s">
-        <v>18</v>
-      </c>
-      <c r="C22" t="s">
-        <v>18</v>
-      </c>
-      <c r="D22" t="s">
-        <v>18</v>
-      </c>
-      <c r="E22" t="s">
-        <v>18</v>
-      </c>
-      <c r="F22" t="s">
-        <v>18</v>
-      </c>
-      <c r="G22" t="s">
-        <v>18</v>
-      </c>
-      <c r="H22" t="s">
-        <v>18</v>
-      </c>
-      <c r="I22" t="s">
-        <v>18</v>
-      </c>
-      <c r="J22" t="s">
-        <v>18</v>
-      </c>
-      <c r="K22" t="s">
-        <v>18</v>
-      </c>
-      <c r="L22" t="s">
-        <v>18</v>
-      </c>
-      <c r="M22" t="s">
-        <v>18</v>
-      </c>
-      <c r="N22" t="s">
-        <v>18</v>
-      </c>
-      <c r="O22" t="s">
-        <v>18</v>
-      </c>
-      <c r="P22" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>19</v>
+      <c r="B22">
+        <v>2000</v>
+      </c>
+      <c r="C22">
+        <v>2000</v>
+      </c>
+      <c r="D22">
+        <v>2000</v>
+      </c>
+      <c r="E22">
+        <v>2000</v>
+      </c>
+      <c r="F22">
+        <v>2000</v>
+      </c>
+      <c r="G22">
+        <v>2000</v>
+      </c>
+      <c r="H22">
+        <v>2000</v>
+      </c>
+      <c r="I22">
+        <v>2000</v>
+      </c>
+      <c r="J22">
+        <v>2000</v>
+      </c>
+      <c r="K22">
+        <v>2000</v>
+      </c>
+      <c r="L22">
+        <v>2000</v>
+      </c>
+      <c r="M22">
+        <v>2000</v>
+      </c>
+      <c r="N22">
+        <v>2000</v>
+      </c>
+      <c r="O22">
+        <v>2000</v>
+      </c>
+      <c r="P22">
+        <v>2000</v>
+      </c>
+      <c r="Q22">
+        <v>2000</v>
       </c>
     </row>
     <row r="23" spans="1:17">
       <c r="A23" t="s">
         <v>58</v>
       </c>
-      <c r="B23" t="s">
-        <v>18</v>
-      </c>
-      <c r="C23" t="s">
-        <v>18</v>
-      </c>
-      <c r="D23" t="s">
-        <v>18</v>
-      </c>
-      <c r="E23" t="s">
-        <v>18</v>
-      </c>
-      <c r="F23" t="s">
-        <v>18</v>
-      </c>
-      <c r="G23" t="s">
-        <v>18</v>
-      </c>
-      <c r="H23" t="s">
-        <v>18</v>
-      </c>
-      <c r="I23" t="s">
-        <v>18</v>
-      </c>
-      <c r="J23" t="s">
-        <v>18</v>
-      </c>
-      <c r="K23" t="s">
-        <v>18</v>
-      </c>
-      <c r="L23" t="s">
-        <v>18</v>
-      </c>
-      <c r="M23" t="s">
-        <v>18</v>
-      </c>
-      <c r="N23" t="s">
-        <v>18</v>
-      </c>
-      <c r="O23" t="s">
-        <v>18</v>
-      </c>
-      <c r="P23" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q23" t="s">
-        <v>19</v>
+      <c r="B23">
+        <v>2000</v>
+      </c>
+      <c r="C23">
+        <v>2000</v>
+      </c>
+      <c r="D23">
+        <v>2000</v>
+      </c>
+      <c r="E23">
+        <v>2000</v>
+      </c>
+      <c r="F23">
+        <v>2000</v>
+      </c>
+      <c r="G23">
+        <v>2000</v>
+      </c>
+      <c r="H23">
+        <v>2000</v>
+      </c>
+      <c r="I23">
+        <v>2000</v>
+      </c>
+      <c r="J23">
+        <v>2000</v>
+      </c>
+      <c r="K23">
+        <v>2000</v>
+      </c>
+      <c r="L23">
+        <v>2000</v>
+      </c>
+      <c r="M23">
+        <v>2000</v>
+      </c>
+      <c r="N23">
+        <v>2000</v>
+      </c>
+      <c r="O23">
+        <v>2000</v>
+      </c>
+      <c r="P23">
+        <v>2000</v>
+      </c>
+      <c r="Q23">
+        <v>2000</v>
       </c>
     </row>
     <row r="24" spans="1:17">
       <c r="A24" t="s">
         <v>59</v>
       </c>
-      <c r="B24" t="s">
-        <v>18</v>
-      </c>
-      <c r="C24" t="s">
-        <v>18</v>
-      </c>
-      <c r="D24" t="s">
-        <v>18</v>
-      </c>
-      <c r="E24" t="s">
-        <v>18</v>
-      </c>
-      <c r="F24" t="s">
-        <v>18</v>
-      </c>
-      <c r="G24" t="s">
-        <v>18</v>
-      </c>
-      <c r="H24" t="s">
-        <v>18</v>
-      </c>
-      <c r="I24" t="s">
-        <v>18</v>
-      </c>
-      <c r="J24" t="s">
-        <v>18</v>
-      </c>
-      <c r="K24" t="s">
-        <v>18</v>
-      </c>
-      <c r="L24" t="s">
-        <v>18</v>
-      </c>
-      <c r="M24" t="s">
-        <v>18</v>
-      </c>
-      <c r="N24" t="s">
-        <v>18</v>
-      </c>
-      <c r="O24" t="s">
-        <v>18</v>
-      </c>
-      <c r="P24" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q24" t="s">
-        <v>19</v>
+      <c r="B24">
+        <v>2000</v>
+      </c>
+      <c r="C24">
+        <v>2000</v>
+      </c>
+      <c r="D24">
+        <v>2000</v>
+      </c>
+      <c r="E24">
+        <v>2000</v>
+      </c>
+      <c r="F24">
+        <v>2000</v>
+      </c>
+      <c r="G24">
+        <v>2000</v>
+      </c>
+      <c r="H24">
+        <v>2000</v>
+      </c>
+      <c r="I24">
+        <v>2000</v>
+      </c>
+      <c r="J24">
+        <v>2000</v>
+      </c>
+      <c r="K24">
+        <v>2000</v>
+      </c>
+      <c r="L24">
+        <v>2000</v>
+      </c>
+      <c r="M24">
+        <v>2000</v>
+      </c>
+      <c r="N24">
+        <v>2000</v>
+      </c>
+      <c r="O24">
+        <v>2000</v>
+      </c>
+      <c r="P24">
+        <v>2000</v>
+      </c>
+      <c r="Q24">
+        <v>2000</v>
       </c>
     </row>
     <row r="25" spans="1:17">
       <c r="A25" t="s">
         <v>60</v>
       </c>
-      <c r="B25" t="s">
-        <v>18</v>
-      </c>
-      <c r="C25" t="s">
-        <v>18</v>
-      </c>
-      <c r="D25" t="s">
-        <v>18</v>
-      </c>
-      <c r="E25" t="s">
-        <v>18</v>
-      </c>
-      <c r="F25" t="s">
-        <v>18</v>
-      </c>
-      <c r="G25" t="s">
-        <v>18</v>
-      </c>
-      <c r="H25" t="s">
-        <v>18</v>
-      </c>
-      <c r="I25" t="s">
-        <v>18</v>
-      </c>
-      <c r="J25" t="s">
-        <v>18</v>
-      </c>
-      <c r="K25" t="s">
-        <v>18</v>
-      </c>
-      <c r="L25" t="s">
-        <v>18</v>
-      </c>
-      <c r="M25" t="s">
-        <v>18</v>
-      </c>
-      <c r="N25" t="s">
-        <v>18</v>
-      </c>
-      <c r="O25" t="s">
-        <v>18</v>
-      </c>
-      <c r="P25" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q25" t="s">
-        <v>19</v>
+      <c r="B25">
+        <v>2000</v>
+      </c>
+      <c r="C25">
+        <v>2000</v>
+      </c>
+      <c r="D25">
+        <v>2000</v>
+      </c>
+      <c r="E25">
+        <v>2000</v>
+      </c>
+      <c r="F25">
+        <v>2000</v>
+      </c>
+      <c r="G25">
+        <v>2000</v>
+      </c>
+      <c r="H25">
+        <v>2000</v>
+      </c>
+      <c r="I25">
+        <v>2000</v>
+      </c>
+      <c r="J25">
+        <v>2000</v>
+      </c>
+      <c r="K25">
+        <v>2000</v>
+      </c>
+      <c r="L25">
+        <v>2000</v>
+      </c>
+      <c r="M25">
+        <v>2000</v>
+      </c>
+      <c r="N25">
+        <v>2000</v>
+      </c>
+      <c r="O25">
+        <v>2000</v>
+      </c>
+      <c r="P25">
+        <v>2000</v>
+      </c>
+      <c r="Q25">
+        <v>2000</v>
       </c>
     </row>
     <row r="26" spans="1:17">
       <c r="A26" t="s">
         <v>61</v>
       </c>
-      <c r="B26" t="s">
-        <v>18</v>
-      </c>
-      <c r="C26" t="s">
-        <v>18</v>
-      </c>
-      <c r="D26" t="s">
-        <v>18</v>
-      </c>
-      <c r="E26" t="s">
-        <v>18</v>
-      </c>
-      <c r="F26" t="s">
-        <v>18</v>
-      </c>
-      <c r="G26" t="s">
-        <v>18</v>
-      </c>
-      <c r="H26" t="s">
-        <v>18</v>
-      </c>
-      <c r="I26" t="s">
-        <v>18</v>
-      </c>
-      <c r="J26" t="s">
-        <v>18</v>
-      </c>
-      <c r="K26" t="s">
-        <v>18</v>
-      </c>
-      <c r="L26" t="s">
-        <v>18</v>
-      </c>
-      <c r="M26" t="s">
-        <v>18</v>
-      </c>
-      <c r="N26" t="s">
-        <v>18</v>
-      </c>
-      <c r="O26" t="s">
-        <v>18</v>
-      </c>
-      <c r="P26" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q26" t="s">
-        <v>19</v>
+      <c r="B26">
+        <v>2000</v>
+      </c>
+      <c r="C26">
+        <v>2000</v>
+      </c>
+      <c r="D26">
+        <v>2000</v>
+      </c>
+      <c r="E26">
+        <v>2000</v>
+      </c>
+      <c r="F26">
+        <v>2000</v>
+      </c>
+      <c r="G26">
+        <v>2000</v>
+      </c>
+      <c r="H26">
+        <v>2000</v>
+      </c>
+      <c r="I26">
+        <v>2000</v>
+      </c>
+      <c r="J26">
+        <v>2000</v>
+      </c>
+      <c r="K26">
+        <v>2000</v>
+      </c>
+      <c r="L26">
+        <v>2000</v>
+      </c>
+      <c r="M26">
+        <v>2000</v>
+      </c>
+      <c r="N26">
+        <v>2000</v>
+      </c>
+      <c r="O26">
+        <v>2000</v>
+      </c>
+      <c r="P26">
+        <v>2000</v>
+      </c>
+      <c r="Q26">
+        <v>2000</v>
       </c>
     </row>
     <row r="27" spans="1:17">
       <c r="A27" t="s">
         <v>62</v>
       </c>
-      <c r="B27" t="s">
-        <v>18</v>
-      </c>
-      <c r="C27" t="s">
-        <v>18</v>
-      </c>
-      <c r="D27" t="s">
-        <v>18</v>
-      </c>
-      <c r="E27" t="s">
-        <v>18</v>
-      </c>
-      <c r="F27" t="s">
-        <v>18</v>
-      </c>
-      <c r="G27" t="s">
-        <v>18</v>
-      </c>
-      <c r="H27" t="s">
-        <v>18</v>
-      </c>
-      <c r="I27" t="s">
-        <v>18</v>
-      </c>
-      <c r="J27" t="s">
-        <v>18</v>
-      </c>
-      <c r="K27" t="s">
-        <v>18</v>
-      </c>
-      <c r="L27" t="s">
-        <v>18</v>
-      </c>
-      <c r="M27" t="s">
-        <v>18</v>
-      </c>
-      <c r="N27" t="s">
-        <v>18</v>
-      </c>
-      <c r="O27" t="s">
-        <v>18</v>
-      </c>
-      <c r="P27" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q27" t="s">
-        <v>19</v>
+      <c r="B27">
+        <v>2000</v>
+      </c>
+      <c r="C27">
+        <v>2000</v>
+      </c>
+      <c r="D27">
+        <v>2000</v>
+      </c>
+      <c r="E27">
+        <v>2000</v>
+      </c>
+      <c r="F27">
+        <v>2000</v>
+      </c>
+      <c r="G27">
+        <v>2000</v>
+      </c>
+      <c r="H27">
+        <v>2000</v>
+      </c>
+      <c r="I27">
+        <v>2000</v>
+      </c>
+      <c r="J27">
+        <v>2000</v>
+      </c>
+      <c r="K27">
+        <v>2000</v>
+      </c>
+      <c r="L27">
+        <v>2000</v>
+      </c>
+      <c r="M27">
+        <v>2000</v>
+      </c>
+      <c r="N27">
+        <v>2000</v>
+      </c>
+      <c r="O27">
+        <v>2000</v>
+      </c>
+      <c r="P27">
+        <v>2000</v>
+      </c>
+      <c r="Q27">
+        <v>2000</v>
       </c>
     </row>
   </sheetData>
@@ -15540,7 +15543,7 @@
   <dimension ref="A1:Q12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:Q12"/>
+      <selection activeCell="B3" sqref="B2:Q12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
@@ -15603,52 +15606,52 @@
         <v>17</v>
       </c>
       <c r="B2">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="C2">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="D2">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="E2">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="F2">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="G2">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="H2">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="I2">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="J2">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="K2">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="L2">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="M2">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="N2">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="O2">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="P2">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="Q2">
-        <v>1000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -15656,52 +15659,52 @@
         <v>39</v>
       </c>
       <c r="B3">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="C3">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="D3">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="E3">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="F3">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="G3">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="H3">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="I3">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="J3">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="K3">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="L3">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="M3">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="N3">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="O3">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="P3">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="Q3">
-        <v>1000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -15709,52 +15712,52 @@
         <v>64</v>
       </c>
       <c r="B4">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="C4">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="D4">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="E4">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="F4">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="G4">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="H4">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="I4">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="J4">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="K4">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="L4">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="M4">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="N4">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="O4">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="P4">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="Q4">
-        <v>1000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -15762,52 +15765,52 @@
         <v>80</v>
       </c>
       <c r="B5">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="C5">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="D5">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="E5">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="F5">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="G5">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="H5">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="I5">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="J5">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="K5">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="L5">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="M5">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="N5">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="O5">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="P5">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="Q5">
-        <v>1000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -15815,52 +15818,52 @@
         <v>81</v>
       </c>
       <c r="B6">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="C6">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="D6">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="E6">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="F6">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="G6">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="H6">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="I6">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="J6">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="K6">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="L6">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="M6">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="N6">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="O6">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="P6">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="Q6">
-        <v>1000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -15868,52 +15871,52 @@
         <v>82</v>
       </c>
       <c r="B7">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="C7">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="D7">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="E7">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="F7">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="G7">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="H7">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="I7">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="J7">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="K7">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="L7">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="M7">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="N7">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="O7">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="P7">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="Q7">
-        <v>1000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -15921,52 +15924,52 @@
         <v>83</v>
       </c>
       <c r="B8">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="C8">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="D8">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="E8">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="F8">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="G8">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="H8">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="I8">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="J8">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="K8">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="L8">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="M8">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="N8">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="O8">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="P8">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="Q8">
-        <v>1000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -15974,52 +15977,52 @@
         <v>84</v>
       </c>
       <c r="B9">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="C9">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="D9">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="E9">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="F9">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="G9">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="H9">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="I9">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="J9">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="K9">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="L9">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="M9">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="N9">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="O9">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="P9">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="Q9">
-        <v>1000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -16027,52 +16030,52 @@
         <v>63</v>
       </c>
       <c r="B10">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="C10">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="D10">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="E10">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="F10">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="G10">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="H10">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="I10">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="J10">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="K10">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="L10">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="M10">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="N10">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="O10">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="P10">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="Q10">
-        <v>1000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -16080,52 +16083,52 @@
         <v>85</v>
       </c>
       <c r="B11">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="C11">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="D11">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="E11">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="F11">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="G11">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="H11">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="I11">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="J11">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="K11">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="L11">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="M11">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="N11">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="O11">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="P11">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="Q11">
-        <v>1000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -16133,52 +16136,52 @@
         <v>86</v>
       </c>
       <c r="B12">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="C12">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="D12">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="E12">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="F12">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="G12">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="H12">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="I12">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="J12">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="K12">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="L12">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="M12">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="N12">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="O12">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="P12">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="Q12">
-        <v>1000</v>
+        <v>2000</v>
       </c>
     </row>
   </sheetData>

--- a/server/20대_개표현황.xlsx
+++ b/server/20대_개표현황.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kimtaehyeong/Desktop/presidential-election/server/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF1BF504-AB00-0843-9675-0C7789D000D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{038DC02C-FFF3-3E40-BB98-3732AB011F29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16280" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16280" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="전국" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4271" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4175" uniqueCount="265">
   <si>
     <t>시도명</t>
   </si>
@@ -12583,7 +12583,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Q27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2:Q27"/>
     </sheetView>
   </sheetViews>
@@ -15543,7 +15543,7 @@
   <dimension ref="A1:Q12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B2:Q12"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
@@ -16964,7 +16964,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:Q7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:Q7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <sheetData>
@@ -17025,318 +17027,318 @@
       <c r="A2" t="s">
         <v>17</v>
       </c>
-      <c r="B2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L2" t="s">
-        <v>18</v>
-      </c>
-      <c r="M2" t="s">
-        <v>18</v>
-      </c>
-      <c r="N2" t="s">
-        <v>18</v>
-      </c>
-      <c r="O2" t="s">
-        <v>18</v>
-      </c>
-      <c r="P2" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>19</v>
+      <c r="B2">
+        <v>3000</v>
+      </c>
+      <c r="C2">
+        <v>3000</v>
+      </c>
+      <c r="D2">
+        <v>3000</v>
+      </c>
+      <c r="E2">
+        <v>3000</v>
+      </c>
+      <c r="F2">
+        <v>3000</v>
+      </c>
+      <c r="G2">
+        <v>3000</v>
+      </c>
+      <c r="H2">
+        <v>3000</v>
+      </c>
+      <c r="I2">
+        <v>3000</v>
+      </c>
+      <c r="J2">
+        <v>3000</v>
+      </c>
+      <c r="K2">
+        <v>3000</v>
+      </c>
+      <c r="L2">
+        <v>3000</v>
+      </c>
+      <c r="M2">
+        <v>3000</v>
+      </c>
+      <c r="N2">
+        <v>3000</v>
+      </c>
+      <c r="O2">
+        <v>3000</v>
+      </c>
+      <c r="P2">
+        <v>3000</v>
+      </c>
+      <c r="Q2">
+        <v>3000</v>
       </c>
     </row>
     <row r="3" spans="1:17">
       <c r="A3" t="s">
         <v>39</v>
       </c>
-      <c r="B3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K3" t="s">
-        <v>18</v>
-      </c>
-      <c r="L3" t="s">
-        <v>18</v>
-      </c>
-      <c r="M3" t="s">
-        <v>18</v>
-      </c>
-      <c r="N3" t="s">
-        <v>18</v>
-      </c>
-      <c r="O3" t="s">
-        <v>18</v>
-      </c>
-      <c r="P3" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>19</v>
+      <c r="B3">
+        <v>3000</v>
+      </c>
+      <c r="C3">
+        <v>3000</v>
+      </c>
+      <c r="D3">
+        <v>3000</v>
+      </c>
+      <c r="E3">
+        <v>3000</v>
+      </c>
+      <c r="F3">
+        <v>3000</v>
+      </c>
+      <c r="G3">
+        <v>3000</v>
+      </c>
+      <c r="H3">
+        <v>3000</v>
+      </c>
+      <c r="I3">
+        <v>3000</v>
+      </c>
+      <c r="J3">
+        <v>3000</v>
+      </c>
+      <c r="K3">
+        <v>3000</v>
+      </c>
+      <c r="L3">
+        <v>3000</v>
+      </c>
+      <c r="M3">
+        <v>3000</v>
+      </c>
+      <c r="N3">
+        <v>3000</v>
+      </c>
+      <c r="O3">
+        <v>3000</v>
+      </c>
+      <c r="P3">
+        <v>3000</v>
+      </c>
+      <c r="Q3">
+        <v>3000</v>
       </c>
     </row>
     <row r="4" spans="1:17">
       <c r="A4" t="s">
         <v>68</v>
       </c>
-      <c r="B4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I4" t="s">
-        <v>18</v>
-      </c>
-      <c r="J4" t="s">
-        <v>18</v>
-      </c>
-      <c r="K4" t="s">
-        <v>18</v>
-      </c>
-      <c r="L4" t="s">
-        <v>18</v>
-      </c>
-      <c r="M4" t="s">
-        <v>18</v>
-      </c>
-      <c r="N4" t="s">
-        <v>18</v>
-      </c>
-      <c r="O4" t="s">
-        <v>18</v>
-      </c>
-      <c r="P4" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>19</v>
+      <c r="B4">
+        <v>3000</v>
+      </c>
+      <c r="C4">
+        <v>3000</v>
+      </c>
+      <c r="D4">
+        <v>3000</v>
+      </c>
+      <c r="E4">
+        <v>3000</v>
+      </c>
+      <c r="F4">
+        <v>3000</v>
+      </c>
+      <c r="G4">
+        <v>3000</v>
+      </c>
+      <c r="H4">
+        <v>3000</v>
+      </c>
+      <c r="I4">
+        <v>3000</v>
+      </c>
+      <c r="J4">
+        <v>3000</v>
+      </c>
+      <c r="K4">
+        <v>3000</v>
+      </c>
+      <c r="L4">
+        <v>3000</v>
+      </c>
+      <c r="M4">
+        <v>3000</v>
+      </c>
+      <c r="N4">
+        <v>3000</v>
+      </c>
+      <c r="O4">
+        <v>3000</v>
+      </c>
+      <c r="P4">
+        <v>3000</v>
+      </c>
+      <c r="Q4">
+        <v>3000</v>
       </c>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" t="s">
         <v>64</v>
       </c>
-      <c r="B5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H5" t="s">
-        <v>18</v>
-      </c>
-      <c r="I5" t="s">
-        <v>18</v>
-      </c>
-      <c r="J5" t="s">
-        <v>18</v>
-      </c>
-      <c r="K5" t="s">
-        <v>18</v>
-      </c>
-      <c r="L5" t="s">
-        <v>18</v>
-      </c>
-      <c r="M5" t="s">
-        <v>18</v>
-      </c>
-      <c r="N5" t="s">
-        <v>18</v>
-      </c>
-      <c r="O5" t="s">
-        <v>18</v>
-      </c>
-      <c r="P5" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>19</v>
+      <c r="B5">
+        <v>3000</v>
+      </c>
+      <c r="C5">
+        <v>3000</v>
+      </c>
+      <c r="D5">
+        <v>3000</v>
+      </c>
+      <c r="E5">
+        <v>3000</v>
+      </c>
+      <c r="F5">
+        <v>3000</v>
+      </c>
+      <c r="G5">
+        <v>3000</v>
+      </c>
+      <c r="H5">
+        <v>3000</v>
+      </c>
+      <c r="I5">
+        <v>3000</v>
+      </c>
+      <c r="J5">
+        <v>3000</v>
+      </c>
+      <c r="K5">
+        <v>3000</v>
+      </c>
+      <c r="L5">
+        <v>3000</v>
+      </c>
+      <c r="M5">
+        <v>3000</v>
+      </c>
+      <c r="N5">
+        <v>3000</v>
+      </c>
+      <c r="O5">
+        <v>3000</v>
+      </c>
+      <c r="P5">
+        <v>3000</v>
+      </c>
+      <c r="Q5">
+        <v>3000</v>
       </c>
     </row>
     <row r="6" spans="1:17">
       <c r="A6" t="s">
         <v>69</v>
       </c>
-      <c r="B6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I6" t="s">
-        <v>18</v>
-      </c>
-      <c r="J6" t="s">
-        <v>18</v>
-      </c>
-      <c r="K6" t="s">
-        <v>18</v>
-      </c>
-      <c r="L6" t="s">
-        <v>18</v>
-      </c>
-      <c r="M6" t="s">
-        <v>18</v>
-      </c>
-      <c r="N6" t="s">
-        <v>18</v>
-      </c>
-      <c r="O6" t="s">
-        <v>18</v>
-      </c>
-      <c r="P6" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>19</v>
+      <c r="B6">
+        <v>3000</v>
+      </c>
+      <c r="C6">
+        <v>3000</v>
+      </c>
+      <c r="D6">
+        <v>3000</v>
+      </c>
+      <c r="E6">
+        <v>3000</v>
+      </c>
+      <c r="F6">
+        <v>3000</v>
+      </c>
+      <c r="G6">
+        <v>3000</v>
+      </c>
+      <c r="H6">
+        <v>3000</v>
+      </c>
+      <c r="I6">
+        <v>3000</v>
+      </c>
+      <c r="J6">
+        <v>3000</v>
+      </c>
+      <c r="K6">
+        <v>3000</v>
+      </c>
+      <c r="L6">
+        <v>3000</v>
+      </c>
+      <c r="M6">
+        <v>3000</v>
+      </c>
+      <c r="N6">
+        <v>3000</v>
+      </c>
+      <c r="O6">
+        <v>3000</v>
+      </c>
+      <c r="P6">
+        <v>3000</v>
+      </c>
+      <c r="Q6">
+        <v>3000</v>
       </c>
     </row>
     <row r="7" spans="1:17">
       <c r="A7" t="s">
         <v>90</v>
       </c>
-      <c r="B7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H7" t="s">
-        <v>18</v>
-      </c>
-      <c r="I7" t="s">
-        <v>18</v>
-      </c>
-      <c r="J7" t="s">
-        <v>18</v>
-      </c>
-      <c r="K7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L7" t="s">
-        <v>18</v>
-      </c>
-      <c r="M7" t="s">
-        <v>18</v>
-      </c>
-      <c r="N7" t="s">
-        <v>18</v>
-      </c>
-      <c r="O7" t="s">
-        <v>18</v>
-      </c>
-      <c r="P7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>19</v>
+      <c r="B7">
+        <v>3000</v>
+      </c>
+      <c r="C7">
+        <v>3000</v>
+      </c>
+      <c r="D7">
+        <v>3000</v>
+      </c>
+      <c r="E7">
+        <v>3000</v>
+      </c>
+      <c r="F7">
+        <v>3000</v>
+      </c>
+      <c r="G7">
+        <v>3000</v>
+      </c>
+      <c r="H7">
+        <v>3000</v>
+      </c>
+      <c r="I7">
+        <v>3000</v>
+      </c>
+      <c r="J7">
+        <v>3000</v>
+      </c>
+      <c r="K7">
+        <v>3000</v>
+      </c>
+      <c r="L7">
+        <v>3000</v>
+      </c>
+      <c r="M7">
+        <v>3000</v>
+      </c>
+      <c r="N7">
+        <v>3000</v>
+      </c>
+      <c r="O7">
+        <v>3000</v>
+      </c>
+      <c r="P7">
+        <v>3000</v>
+      </c>
+      <c r="Q7">
+        <v>3000</v>
       </c>
     </row>
   </sheetData>

--- a/server/20대_개표현황.xlsx
+++ b/server/20대_개표현황.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kimtaehyeong/Desktop/presidential-election/server/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{038DC02C-FFF3-3E40-BB98-3732AB011F29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE017D6E-FBC8-A143-AB1F-FE12D90F8857}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16280" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16280" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="전국" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4175" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3487" uniqueCount="265">
   <si>
     <t>시도명</t>
   </si>
@@ -2228,7 +2228,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:Q44"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="T21" sqref="T21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <sheetData>
@@ -2289,2279 +2291,2279 @@
       <c r="A2" t="s">
         <v>17</v>
       </c>
-      <c r="B2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L2" t="s">
-        <v>18</v>
-      </c>
-      <c r="M2" t="s">
-        <v>18</v>
-      </c>
-      <c r="N2" t="s">
-        <v>18</v>
-      </c>
-      <c r="O2" t="s">
-        <v>18</v>
-      </c>
-      <c r="P2" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>19</v>
+      <c r="B2">
+        <v>4000</v>
+      </c>
+      <c r="C2">
+        <v>4000</v>
+      </c>
+      <c r="D2">
+        <v>4000</v>
+      </c>
+      <c r="E2">
+        <v>4000</v>
+      </c>
+      <c r="F2">
+        <v>4000</v>
+      </c>
+      <c r="G2">
+        <v>4000</v>
+      </c>
+      <c r="H2">
+        <v>4000</v>
+      </c>
+      <c r="I2">
+        <v>4000</v>
+      </c>
+      <c r="J2">
+        <v>4000</v>
+      </c>
+      <c r="K2">
+        <v>4000</v>
+      </c>
+      <c r="L2">
+        <v>4000</v>
+      </c>
+      <c r="M2">
+        <v>4000</v>
+      </c>
+      <c r="N2">
+        <v>4000</v>
+      </c>
+      <c r="O2">
+        <v>4000</v>
+      </c>
+      <c r="P2">
+        <v>4000</v>
+      </c>
+      <c r="Q2">
+        <v>4000</v>
       </c>
     </row>
     <row r="3" spans="1:17">
       <c r="A3" t="s">
         <v>91</v>
       </c>
-      <c r="B3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K3" t="s">
-        <v>18</v>
-      </c>
-      <c r="L3" t="s">
-        <v>18</v>
-      </c>
-      <c r="M3" t="s">
-        <v>18</v>
-      </c>
-      <c r="N3" t="s">
-        <v>18</v>
-      </c>
-      <c r="O3" t="s">
-        <v>18</v>
-      </c>
-      <c r="P3" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>19</v>
+      <c r="B3">
+        <v>4000</v>
+      </c>
+      <c r="C3">
+        <v>4000</v>
+      </c>
+      <c r="D3">
+        <v>4000</v>
+      </c>
+      <c r="E3">
+        <v>4000</v>
+      </c>
+      <c r="F3">
+        <v>4000</v>
+      </c>
+      <c r="G3">
+        <v>4000</v>
+      </c>
+      <c r="H3">
+        <v>4000</v>
+      </c>
+      <c r="I3">
+        <v>4000</v>
+      </c>
+      <c r="J3">
+        <v>4000</v>
+      </c>
+      <c r="K3">
+        <v>4000</v>
+      </c>
+      <c r="L3">
+        <v>4000</v>
+      </c>
+      <c r="M3">
+        <v>4000</v>
+      </c>
+      <c r="N3">
+        <v>4000</v>
+      </c>
+      <c r="O3">
+        <v>4000</v>
+      </c>
+      <c r="P3">
+        <v>4000</v>
+      </c>
+      <c r="Q3">
+        <v>4000</v>
       </c>
     </row>
     <row r="4" spans="1:17">
       <c r="A4" t="s">
         <v>92</v>
       </c>
-      <c r="B4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I4" t="s">
-        <v>18</v>
-      </c>
-      <c r="J4" t="s">
-        <v>18</v>
-      </c>
-      <c r="K4" t="s">
-        <v>18</v>
-      </c>
-      <c r="L4" t="s">
-        <v>18</v>
-      </c>
-      <c r="M4" t="s">
-        <v>18</v>
-      </c>
-      <c r="N4" t="s">
-        <v>18</v>
-      </c>
-      <c r="O4" t="s">
-        <v>18</v>
-      </c>
-      <c r="P4" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>19</v>
+      <c r="B4">
+        <v>4000</v>
+      </c>
+      <c r="C4">
+        <v>4000</v>
+      </c>
+      <c r="D4">
+        <v>4000</v>
+      </c>
+      <c r="E4">
+        <v>4000</v>
+      </c>
+      <c r="F4">
+        <v>4000</v>
+      </c>
+      <c r="G4">
+        <v>4000</v>
+      </c>
+      <c r="H4">
+        <v>4000</v>
+      </c>
+      <c r="I4">
+        <v>4000</v>
+      </c>
+      <c r="J4">
+        <v>4000</v>
+      </c>
+      <c r="K4">
+        <v>4000</v>
+      </c>
+      <c r="L4">
+        <v>4000</v>
+      </c>
+      <c r="M4">
+        <v>4000</v>
+      </c>
+      <c r="N4">
+        <v>4000</v>
+      </c>
+      <c r="O4">
+        <v>4000</v>
+      </c>
+      <c r="P4">
+        <v>4000</v>
+      </c>
+      <c r="Q4">
+        <v>4000</v>
       </c>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" t="s">
         <v>93</v>
       </c>
-      <c r="B5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H5" t="s">
-        <v>18</v>
-      </c>
-      <c r="I5" t="s">
-        <v>18</v>
-      </c>
-      <c r="J5" t="s">
-        <v>18</v>
-      </c>
-      <c r="K5" t="s">
-        <v>18</v>
-      </c>
-      <c r="L5" t="s">
-        <v>18</v>
-      </c>
-      <c r="M5" t="s">
-        <v>18</v>
-      </c>
-      <c r="N5" t="s">
-        <v>18</v>
-      </c>
-      <c r="O5" t="s">
-        <v>18</v>
-      </c>
-      <c r="P5" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>19</v>
+      <c r="B5">
+        <v>4000</v>
+      </c>
+      <c r="C5">
+        <v>4000</v>
+      </c>
+      <c r="D5">
+        <v>4000</v>
+      </c>
+      <c r="E5">
+        <v>4000</v>
+      </c>
+      <c r="F5">
+        <v>4000</v>
+      </c>
+      <c r="G5">
+        <v>4000</v>
+      </c>
+      <c r="H5">
+        <v>4000</v>
+      </c>
+      <c r="I5">
+        <v>4000</v>
+      </c>
+      <c r="J5">
+        <v>4000</v>
+      </c>
+      <c r="K5">
+        <v>4000</v>
+      </c>
+      <c r="L5">
+        <v>4000</v>
+      </c>
+      <c r="M5">
+        <v>4000</v>
+      </c>
+      <c r="N5">
+        <v>4000</v>
+      </c>
+      <c r="O5">
+        <v>4000</v>
+      </c>
+      <c r="P5">
+        <v>4000</v>
+      </c>
+      <c r="Q5">
+        <v>4000</v>
       </c>
     </row>
     <row r="6" spans="1:17">
       <c r="A6" t="s">
         <v>94</v>
       </c>
-      <c r="B6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I6" t="s">
-        <v>18</v>
-      </c>
-      <c r="J6" t="s">
-        <v>18</v>
-      </c>
-      <c r="K6" t="s">
-        <v>18</v>
-      </c>
-      <c r="L6" t="s">
-        <v>18</v>
-      </c>
-      <c r="M6" t="s">
-        <v>18</v>
-      </c>
-      <c r="N6" t="s">
-        <v>18</v>
-      </c>
-      <c r="O6" t="s">
-        <v>18</v>
-      </c>
-      <c r="P6" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>19</v>
+      <c r="B6">
+        <v>4000</v>
+      </c>
+      <c r="C6">
+        <v>4000</v>
+      </c>
+      <c r="D6">
+        <v>4000</v>
+      </c>
+      <c r="E6">
+        <v>4000</v>
+      </c>
+      <c r="F6">
+        <v>4000</v>
+      </c>
+      <c r="G6">
+        <v>4000</v>
+      </c>
+      <c r="H6">
+        <v>4000</v>
+      </c>
+      <c r="I6">
+        <v>4000</v>
+      </c>
+      <c r="J6">
+        <v>4000</v>
+      </c>
+      <c r="K6">
+        <v>4000</v>
+      </c>
+      <c r="L6">
+        <v>4000</v>
+      </c>
+      <c r="M6">
+        <v>4000</v>
+      </c>
+      <c r="N6">
+        <v>4000</v>
+      </c>
+      <c r="O6">
+        <v>4000</v>
+      </c>
+      <c r="P6">
+        <v>4000</v>
+      </c>
+      <c r="Q6">
+        <v>4000</v>
       </c>
     </row>
     <row r="7" spans="1:17">
       <c r="A7" t="s">
         <v>95</v>
       </c>
-      <c r="B7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H7" t="s">
-        <v>18</v>
-      </c>
-      <c r="I7" t="s">
-        <v>18</v>
-      </c>
-      <c r="J7" t="s">
-        <v>18</v>
-      </c>
-      <c r="K7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L7" t="s">
-        <v>18</v>
-      </c>
-      <c r="M7" t="s">
-        <v>18</v>
-      </c>
-      <c r="N7" t="s">
-        <v>18</v>
-      </c>
-      <c r="O7" t="s">
-        <v>18</v>
-      </c>
-      <c r="P7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>19</v>
+      <c r="B7">
+        <v>4000</v>
+      </c>
+      <c r="C7">
+        <v>4000</v>
+      </c>
+      <c r="D7">
+        <v>4000</v>
+      </c>
+      <c r="E7">
+        <v>4000</v>
+      </c>
+      <c r="F7">
+        <v>4000</v>
+      </c>
+      <c r="G7">
+        <v>4000</v>
+      </c>
+      <c r="H7">
+        <v>4000</v>
+      </c>
+      <c r="I7">
+        <v>4000</v>
+      </c>
+      <c r="J7">
+        <v>4000</v>
+      </c>
+      <c r="K7">
+        <v>4000</v>
+      </c>
+      <c r="L7">
+        <v>4000</v>
+      </c>
+      <c r="M7">
+        <v>4000</v>
+      </c>
+      <c r="N7">
+        <v>4000</v>
+      </c>
+      <c r="O7">
+        <v>4000</v>
+      </c>
+      <c r="P7">
+        <v>4000</v>
+      </c>
+      <c r="Q7">
+        <v>4000</v>
       </c>
     </row>
     <row r="8" spans="1:17">
       <c r="A8" t="s">
         <v>96</v>
       </c>
-      <c r="B8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" t="s">
-        <v>18</v>
-      </c>
-      <c r="F8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G8" t="s">
-        <v>18</v>
-      </c>
-      <c r="H8" t="s">
-        <v>18</v>
-      </c>
-      <c r="I8" t="s">
-        <v>18</v>
-      </c>
-      <c r="J8" t="s">
-        <v>18</v>
-      </c>
-      <c r="K8" t="s">
-        <v>18</v>
-      </c>
-      <c r="L8" t="s">
-        <v>18</v>
-      </c>
-      <c r="M8" t="s">
-        <v>18</v>
-      </c>
-      <c r="N8" t="s">
-        <v>18</v>
-      </c>
-      <c r="O8" t="s">
-        <v>18</v>
-      </c>
-      <c r="P8" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>19</v>
+      <c r="B8">
+        <v>4000</v>
+      </c>
+      <c r="C8">
+        <v>4000</v>
+      </c>
+      <c r="D8">
+        <v>4000</v>
+      </c>
+      <c r="E8">
+        <v>4000</v>
+      </c>
+      <c r="F8">
+        <v>4000</v>
+      </c>
+      <c r="G8">
+        <v>4000</v>
+      </c>
+      <c r="H8">
+        <v>4000</v>
+      </c>
+      <c r="I8">
+        <v>4000</v>
+      </c>
+      <c r="J8">
+        <v>4000</v>
+      </c>
+      <c r="K8">
+        <v>4000</v>
+      </c>
+      <c r="L8">
+        <v>4000</v>
+      </c>
+      <c r="M8">
+        <v>4000</v>
+      </c>
+      <c r="N8">
+        <v>4000</v>
+      </c>
+      <c r="O8">
+        <v>4000</v>
+      </c>
+      <c r="P8">
+        <v>4000</v>
+      </c>
+      <c r="Q8">
+        <v>4000</v>
       </c>
     </row>
     <row r="9" spans="1:17">
       <c r="A9" t="s">
         <v>97</v>
       </c>
-      <c r="B9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H9" t="s">
-        <v>18</v>
-      </c>
-      <c r="I9" t="s">
-        <v>18</v>
-      </c>
-      <c r="J9" t="s">
-        <v>18</v>
-      </c>
-      <c r="K9" t="s">
-        <v>18</v>
-      </c>
-      <c r="L9" t="s">
-        <v>18</v>
-      </c>
-      <c r="M9" t="s">
-        <v>18</v>
-      </c>
-      <c r="N9" t="s">
-        <v>18</v>
-      </c>
-      <c r="O9" t="s">
-        <v>18</v>
-      </c>
-      <c r="P9" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>19</v>
+      <c r="B9">
+        <v>4000</v>
+      </c>
+      <c r="C9">
+        <v>4000</v>
+      </c>
+      <c r="D9">
+        <v>4000</v>
+      </c>
+      <c r="E9">
+        <v>4000</v>
+      </c>
+      <c r="F9">
+        <v>4000</v>
+      </c>
+      <c r="G9">
+        <v>4000</v>
+      </c>
+      <c r="H9">
+        <v>4000</v>
+      </c>
+      <c r="I9">
+        <v>4000</v>
+      </c>
+      <c r="J9">
+        <v>4000</v>
+      </c>
+      <c r="K9">
+        <v>4000</v>
+      </c>
+      <c r="L9">
+        <v>4000</v>
+      </c>
+      <c r="M9">
+        <v>4000</v>
+      </c>
+      <c r="N9">
+        <v>4000</v>
+      </c>
+      <c r="O9">
+        <v>4000</v>
+      </c>
+      <c r="P9">
+        <v>4000</v>
+      </c>
+      <c r="Q9">
+        <v>4000</v>
       </c>
     </row>
     <row r="10" spans="1:17">
       <c r="A10" t="s">
         <v>98</v>
       </c>
-      <c r="B10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" t="s">
-        <v>18</v>
-      </c>
-      <c r="F10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H10" t="s">
-        <v>18</v>
-      </c>
-      <c r="I10" t="s">
-        <v>18</v>
-      </c>
-      <c r="J10" t="s">
-        <v>18</v>
-      </c>
-      <c r="K10" t="s">
-        <v>18</v>
-      </c>
-      <c r="L10" t="s">
-        <v>18</v>
-      </c>
-      <c r="M10" t="s">
-        <v>18</v>
-      </c>
-      <c r="N10" t="s">
-        <v>18</v>
-      </c>
-      <c r="O10" t="s">
-        <v>18</v>
-      </c>
-      <c r="P10" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>19</v>
+      <c r="B10">
+        <v>4000</v>
+      </c>
+      <c r="C10">
+        <v>4000</v>
+      </c>
+      <c r="D10">
+        <v>4000</v>
+      </c>
+      <c r="E10">
+        <v>4000</v>
+      </c>
+      <c r="F10">
+        <v>4000</v>
+      </c>
+      <c r="G10">
+        <v>4000</v>
+      </c>
+      <c r="H10">
+        <v>4000</v>
+      </c>
+      <c r="I10">
+        <v>4000</v>
+      </c>
+      <c r="J10">
+        <v>4000</v>
+      </c>
+      <c r="K10">
+        <v>4000</v>
+      </c>
+      <c r="L10">
+        <v>4000</v>
+      </c>
+      <c r="M10">
+        <v>4000</v>
+      </c>
+      <c r="N10">
+        <v>4000</v>
+      </c>
+      <c r="O10">
+        <v>4000</v>
+      </c>
+      <c r="P10">
+        <v>4000</v>
+      </c>
+      <c r="Q10">
+        <v>4000</v>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="A11" t="s">
         <v>99</v>
       </c>
-      <c r="B11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" t="s">
-        <v>18</v>
-      </c>
-      <c r="E11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G11" t="s">
-        <v>18</v>
-      </c>
-      <c r="H11" t="s">
-        <v>18</v>
-      </c>
-      <c r="I11" t="s">
-        <v>18</v>
-      </c>
-      <c r="J11" t="s">
-        <v>18</v>
-      </c>
-      <c r="K11" t="s">
-        <v>18</v>
-      </c>
-      <c r="L11" t="s">
-        <v>18</v>
-      </c>
-      <c r="M11" t="s">
-        <v>18</v>
-      </c>
-      <c r="N11" t="s">
-        <v>18</v>
-      </c>
-      <c r="O11" t="s">
-        <v>18</v>
-      </c>
-      <c r="P11" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>19</v>
+      <c r="B11">
+        <v>4000</v>
+      </c>
+      <c r="C11">
+        <v>4000</v>
+      </c>
+      <c r="D11">
+        <v>4000</v>
+      </c>
+      <c r="E11">
+        <v>4000</v>
+      </c>
+      <c r="F11">
+        <v>4000</v>
+      </c>
+      <c r="G11">
+        <v>4000</v>
+      </c>
+      <c r="H11">
+        <v>4000</v>
+      </c>
+      <c r="I11">
+        <v>4000</v>
+      </c>
+      <c r="J11">
+        <v>4000</v>
+      </c>
+      <c r="K11">
+        <v>4000</v>
+      </c>
+      <c r="L11">
+        <v>4000</v>
+      </c>
+      <c r="M11">
+        <v>4000</v>
+      </c>
+      <c r="N11">
+        <v>4000</v>
+      </c>
+      <c r="O11">
+        <v>4000</v>
+      </c>
+      <c r="P11">
+        <v>4000</v>
+      </c>
+      <c r="Q11">
+        <v>4000</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="A12" t="s">
         <v>100</v>
       </c>
-      <c r="B12" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12" t="s">
-        <v>18</v>
-      </c>
-      <c r="F12" t="s">
-        <v>18</v>
-      </c>
-      <c r="G12" t="s">
-        <v>18</v>
-      </c>
-      <c r="H12" t="s">
-        <v>18</v>
-      </c>
-      <c r="I12" t="s">
-        <v>18</v>
-      </c>
-      <c r="J12" t="s">
-        <v>18</v>
-      </c>
-      <c r="K12" t="s">
-        <v>18</v>
-      </c>
-      <c r="L12" t="s">
-        <v>18</v>
-      </c>
-      <c r="M12" t="s">
-        <v>18</v>
-      </c>
-      <c r="N12" t="s">
-        <v>18</v>
-      </c>
-      <c r="O12" t="s">
-        <v>18</v>
-      </c>
-      <c r="P12" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>19</v>
+      <c r="B12">
+        <v>4000</v>
+      </c>
+      <c r="C12">
+        <v>4000</v>
+      </c>
+      <c r="D12">
+        <v>4000</v>
+      </c>
+      <c r="E12">
+        <v>4000</v>
+      </c>
+      <c r="F12">
+        <v>4000</v>
+      </c>
+      <c r="G12">
+        <v>4000</v>
+      </c>
+      <c r="H12">
+        <v>4000</v>
+      </c>
+      <c r="I12">
+        <v>4000</v>
+      </c>
+      <c r="J12">
+        <v>4000</v>
+      </c>
+      <c r="K12">
+        <v>4000</v>
+      </c>
+      <c r="L12">
+        <v>4000</v>
+      </c>
+      <c r="M12">
+        <v>4000</v>
+      </c>
+      <c r="N12">
+        <v>4000</v>
+      </c>
+      <c r="O12">
+        <v>4000</v>
+      </c>
+      <c r="P12">
+        <v>4000</v>
+      </c>
+      <c r="Q12">
+        <v>4000</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="A13" t="s">
         <v>101</v>
       </c>
-      <c r="B13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" t="s">
-        <v>18</v>
-      </c>
-      <c r="D13" t="s">
-        <v>18</v>
-      </c>
-      <c r="E13" t="s">
-        <v>18</v>
-      </c>
-      <c r="F13" t="s">
-        <v>18</v>
-      </c>
-      <c r="G13" t="s">
-        <v>18</v>
-      </c>
-      <c r="H13" t="s">
-        <v>18</v>
-      </c>
-      <c r="I13" t="s">
-        <v>18</v>
-      </c>
-      <c r="J13" t="s">
-        <v>18</v>
-      </c>
-      <c r="K13" t="s">
-        <v>18</v>
-      </c>
-      <c r="L13" t="s">
-        <v>18</v>
-      </c>
-      <c r="M13" t="s">
-        <v>18</v>
-      </c>
-      <c r="N13" t="s">
-        <v>18</v>
-      </c>
-      <c r="O13" t="s">
-        <v>18</v>
-      </c>
-      <c r="P13" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>19</v>
+      <c r="B13">
+        <v>4000</v>
+      </c>
+      <c r="C13">
+        <v>4000</v>
+      </c>
+      <c r="D13">
+        <v>4000</v>
+      </c>
+      <c r="E13">
+        <v>4000</v>
+      </c>
+      <c r="F13">
+        <v>4000</v>
+      </c>
+      <c r="G13">
+        <v>4000</v>
+      </c>
+      <c r="H13">
+        <v>4000</v>
+      </c>
+      <c r="I13">
+        <v>4000</v>
+      </c>
+      <c r="J13">
+        <v>4000</v>
+      </c>
+      <c r="K13">
+        <v>4000</v>
+      </c>
+      <c r="L13">
+        <v>4000</v>
+      </c>
+      <c r="M13">
+        <v>4000</v>
+      </c>
+      <c r="N13">
+        <v>4000</v>
+      </c>
+      <c r="O13">
+        <v>4000</v>
+      </c>
+      <c r="P13">
+        <v>4000</v>
+      </c>
+      <c r="Q13">
+        <v>4000</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="A14" t="s">
         <v>102</v>
       </c>
-      <c r="B14" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" t="s">
-        <v>18</v>
-      </c>
-      <c r="D14" t="s">
-        <v>18</v>
-      </c>
-      <c r="E14" t="s">
-        <v>18</v>
-      </c>
-      <c r="F14" t="s">
-        <v>18</v>
-      </c>
-      <c r="G14" t="s">
-        <v>18</v>
-      </c>
-      <c r="H14" t="s">
-        <v>18</v>
-      </c>
-      <c r="I14" t="s">
-        <v>18</v>
-      </c>
-      <c r="J14" t="s">
-        <v>18</v>
-      </c>
-      <c r="K14" t="s">
-        <v>18</v>
-      </c>
-      <c r="L14" t="s">
-        <v>18</v>
-      </c>
-      <c r="M14" t="s">
-        <v>18</v>
-      </c>
-      <c r="N14" t="s">
-        <v>18</v>
-      </c>
-      <c r="O14" t="s">
-        <v>18</v>
-      </c>
-      <c r="P14" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>19</v>
+      <c r="B14">
+        <v>4000</v>
+      </c>
+      <c r="C14">
+        <v>4000</v>
+      </c>
+      <c r="D14">
+        <v>4000</v>
+      </c>
+      <c r="E14">
+        <v>4000</v>
+      </c>
+      <c r="F14">
+        <v>4000</v>
+      </c>
+      <c r="G14">
+        <v>4000</v>
+      </c>
+      <c r="H14">
+        <v>4000</v>
+      </c>
+      <c r="I14">
+        <v>4000</v>
+      </c>
+      <c r="J14">
+        <v>4000</v>
+      </c>
+      <c r="K14">
+        <v>4000</v>
+      </c>
+      <c r="L14">
+        <v>4000</v>
+      </c>
+      <c r="M14">
+        <v>4000</v>
+      </c>
+      <c r="N14">
+        <v>4000</v>
+      </c>
+      <c r="O14">
+        <v>4000</v>
+      </c>
+      <c r="P14">
+        <v>4000</v>
+      </c>
+      <c r="Q14">
+        <v>4000</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="A15" t="s">
         <v>103</v>
       </c>
-      <c r="B15" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" t="s">
-        <v>18</v>
-      </c>
-      <c r="D15" t="s">
-        <v>18</v>
-      </c>
-      <c r="E15" t="s">
-        <v>18</v>
-      </c>
-      <c r="F15" t="s">
-        <v>18</v>
-      </c>
-      <c r="G15" t="s">
-        <v>18</v>
-      </c>
-      <c r="H15" t="s">
-        <v>18</v>
-      </c>
-      <c r="I15" t="s">
-        <v>18</v>
-      </c>
-      <c r="J15" t="s">
-        <v>18</v>
-      </c>
-      <c r="K15" t="s">
-        <v>18</v>
-      </c>
-      <c r="L15" t="s">
-        <v>18</v>
-      </c>
-      <c r="M15" t="s">
-        <v>18</v>
-      </c>
-      <c r="N15" t="s">
-        <v>18</v>
-      </c>
-      <c r="O15" t="s">
-        <v>18</v>
-      </c>
-      <c r="P15" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>19</v>
+      <c r="B15">
+        <v>4000</v>
+      </c>
+      <c r="C15">
+        <v>4000</v>
+      </c>
+      <c r="D15">
+        <v>4000</v>
+      </c>
+      <c r="E15">
+        <v>4000</v>
+      </c>
+      <c r="F15">
+        <v>4000</v>
+      </c>
+      <c r="G15">
+        <v>4000</v>
+      </c>
+      <c r="H15">
+        <v>4000</v>
+      </c>
+      <c r="I15">
+        <v>4000</v>
+      </c>
+      <c r="J15">
+        <v>4000</v>
+      </c>
+      <c r="K15">
+        <v>4000</v>
+      </c>
+      <c r="L15">
+        <v>4000</v>
+      </c>
+      <c r="M15">
+        <v>4000</v>
+      </c>
+      <c r="N15">
+        <v>4000</v>
+      </c>
+      <c r="O15">
+        <v>4000</v>
+      </c>
+      <c r="P15">
+        <v>4000</v>
+      </c>
+      <c r="Q15">
+        <v>4000</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="A16" t="s">
         <v>104</v>
       </c>
-      <c r="B16" t="s">
-        <v>18</v>
-      </c>
-      <c r="C16" t="s">
-        <v>18</v>
-      </c>
-      <c r="D16" t="s">
-        <v>18</v>
-      </c>
-      <c r="E16" t="s">
-        <v>18</v>
-      </c>
-      <c r="F16" t="s">
-        <v>18</v>
-      </c>
-      <c r="G16" t="s">
-        <v>18</v>
-      </c>
-      <c r="H16" t="s">
-        <v>18</v>
-      </c>
-      <c r="I16" t="s">
-        <v>18</v>
-      </c>
-      <c r="J16" t="s">
-        <v>18</v>
-      </c>
-      <c r="K16" t="s">
-        <v>18</v>
-      </c>
-      <c r="L16" t="s">
-        <v>18</v>
-      </c>
-      <c r="M16" t="s">
-        <v>18</v>
-      </c>
-      <c r="N16" t="s">
-        <v>18</v>
-      </c>
-      <c r="O16" t="s">
-        <v>18</v>
-      </c>
-      <c r="P16" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>19</v>
+      <c r="B16">
+        <v>4000</v>
+      </c>
+      <c r="C16">
+        <v>4000</v>
+      </c>
+      <c r="D16">
+        <v>4000</v>
+      </c>
+      <c r="E16">
+        <v>4000</v>
+      </c>
+      <c r="F16">
+        <v>4000</v>
+      </c>
+      <c r="G16">
+        <v>4000</v>
+      </c>
+      <c r="H16">
+        <v>4000</v>
+      </c>
+      <c r="I16">
+        <v>4000</v>
+      </c>
+      <c r="J16">
+        <v>4000</v>
+      </c>
+      <c r="K16">
+        <v>4000</v>
+      </c>
+      <c r="L16">
+        <v>4000</v>
+      </c>
+      <c r="M16">
+        <v>4000</v>
+      </c>
+      <c r="N16">
+        <v>4000</v>
+      </c>
+      <c r="O16">
+        <v>4000</v>
+      </c>
+      <c r="P16">
+        <v>4000</v>
+      </c>
+      <c r="Q16">
+        <v>4000</v>
       </c>
     </row>
     <row r="17" spans="1:17">
       <c r="A17" t="s">
         <v>105</v>
       </c>
-      <c r="B17" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17" t="s">
-        <v>18</v>
-      </c>
-      <c r="D17" t="s">
-        <v>18</v>
-      </c>
-      <c r="E17" t="s">
-        <v>18</v>
-      </c>
-      <c r="F17" t="s">
-        <v>18</v>
-      </c>
-      <c r="G17" t="s">
-        <v>18</v>
-      </c>
-      <c r="H17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I17" t="s">
-        <v>18</v>
-      </c>
-      <c r="J17" t="s">
-        <v>18</v>
-      </c>
-      <c r="K17" t="s">
-        <v>18</v>
-      </c>
-      <c r="L17" t="s">
-        <v>18</v>
-      </c>
-      <c r="M17" t="s">
-        <v>18</v>
-      </c>
-      <c r="N17" t="s">
-        <v>18</v>
-      </c>
-      <c r="O17" t="s">
-        <v>18</v>
-      </c>
-      <c r="P17" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>19</v>
+      <c r="B17">
+        <v>4000</v>
+      </c>
+      <c r="C17">
+        <v>4000</v>
+      </c>
+      <c r="D17">
+        <v>4000</v>
+      </c>
+      <c r="E17">
+        <v>4000</v>
+      </c>
+      <c r="F17">
+        <v>4000</v>
+      </c>
+      <c r="G17">
+        <v>4000</v>
+      </c>
+      <c r="H17">
+        <v>4000</v>
+      </c>
+      <c r="I17">
+        <v>4000</v>
+      </c>
+      <c r="J17">
+        <v>4000</v>
+      </c>
+      <c r="K17">
+        <v>4000</v>
+      </c>
+      <c r="L17">
+        <v>4000</v>
+      </c>
+      <c r="M17">
+        <v>4000</v>
+      </c>
+      <c r="N17">
+        <v>4000</v>
+      </c>
+      <c r="O17">
+        <v>4000</v>
+      </c>
+      <c r="P17">
+        <v>4000</v>
+      </c>
+      <c r="Q17">
+        <v>4000</v>
       </c>
     </row>
     <row r="18" spans="1:17">
       <c r="A18" t="s">
         <v>106</v>
       </c>
-      <c r="B18" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" t="s">
-        <v>18</v>
-      </c>
-      <c r="D18" t="s">
-        <v>18</v>
-      </c>
-      <c r="E18" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" t="s">
-        <v>18</v>
-      </c>
-      <c r="H18" t="s">
-        <v>18</v>
-      </c>
-      <c r="I18" t="s">
-        <v>18</v>
-      </c>
-      <c r="J18" t="s">
-        <v>18</v>
-      </c>
-      <c r="K18" t="s">
-        <v>18</v>
-      </c>
-      <c r="L18" t="s">
-        <v>18</v>
-      </c>
-      <c r="M18" t="s">
-        <v>18</v>
-      </c>
-      <c r="N18" t="s">
-        <v>18</v>
-      </c>
-      <c r="O18" t="s">
-        <v>18</v>
-      </c>
-      <c r="P18" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>19</v>
+      <c r="B18">
+        <v>4000</v>
+      </c>
+      <c r="C18">
+        <v>4000</v>
+      </c>
+      <c r="D18">
+        <v>4000</v>
+      </c>
+      <c r="E18">
+        <v>4000</v>
+      </c>
+      <c r="F18">
+        <v>4000</v>
+      </c>
+      <c r="G18">
+        <v>4000</v>
+      </c>
+      <c r="H18">
+        <v>4000</v>
+      </c>
+      <c r="I18">
+        <v>4000</v>
+      </c>
+      <c r="J18">
+        <v>4000</v>
+      </c>
+      <c r="K18">
+        <v>4000</v>
+      </c>
+      <c r="L18">
+        <v>4000</v>
+      </c>
+      <c r="M18">
+        <v>4000</v>
+      </c>
+      <c r="N18">
+        <v>4000</v>
+      </c>
+      <c r="O18">
+        <v>4000</v>
+      </c>
+      <c r="P18">
+        <v>4000</v>
+      </c>
+      <c r="Q18">
+        <v>4000</v>
       </c>
     </row>
     <row r="19" spans="1:17">
       <c r="A19" t="s">
         <v>107</v>
       </c>
-      <c r="B19" t="s">
-        <v>18</v>
-      </c>
-      <c r="C19" t="s">
-        <v>18</v>
-      </c>
-      <c r="D19" t="s">
-        <v>18</v>
-      </c>
-      <c r="E19" t="s">
-        <v>18</v>
-      </c>
-      <c r="F19" t="s">
-        <v>18</v>
-      </c>
-      <c r="G19" t="s">
-        <v>18</v>
-      </c>
-      <c r="H19" t="s">
-        <v>18</v>
-      </c>
-      <c r="I19" t="s">
-        <v>18</v>
-      </c>
-      <c r="J19" t="s">
-        <v>18</v>
-      </c>
-      <c r="K19" t="s">
-        <v>18</v>
-      </c>
-      <c r="L19" t="s">
-        <v>18</v>
-      </c>
-      <c r="M19" t="s">
-        <v>18</v>
-      </c>
-      <c r="N19" t="s">
-        <v>18</v>
-      </c>
-      <c r="O19" t="s">
-        <v>18</v>
-      </c>
-      <c r="P19" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>19</v>
+      <c r="B19">
+        <v>4000</v>
+      </c>
+      <c r="C19">
+        <v>4000</v>
+      </c>
+      <c r="D19">
+        <v>4000</v>
+      </c>
+      <c r="E19">
+        <v>4000</v>
+      </c>
+      <c r="F19">
+        <v>4000</v>
+      </c>
+      <c r="G19">
+        <v>4000</v>
+      </c>
+      <c r="H19">
+        <v>4000</v>
+      </c>
+      <c r="I19">
+        <v>4000</v>
+      </c>
+      <c r="J19">
+        <v>4000</v>
+      </c>
+      <c r="K19">
+        <v>4000</v>
+      </c>
+      <c r="L19">
+        <v>4000</v>
+      </c>
+      <c r="M19">
+        <v>4000</v>
+      </c>
+      <c r="N19">
+        <v>4000</v>
+      </c>
+      <c r="O19">
+        <v>4000</v>
+      </c>
+      <c r="P19">
+        <v>4000</v>
+      </c>
+      <c r="Q19">
+        <v>4000</v>
       </c>
     </row>
     <row r="20" spans="1:17">
       <c r="A20" t="s">
         <v>108</v>
       </c>
-      <c r="B20" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" t="s">
-        <v>18</v>
-      </c>
-      <c r="D20" t="s">
-        <v>18</v>
-      </c>
-      <c r="E20" t="s">
-        <v>18</v>
-      </c>
-      <c r="F20" t="s">
-        <v>18</v>
-      </c>
-      <c r="G20" t="s">
-        <v>18</v>
-      </c>
-      <c r="H20" t="s">
-        <v>18</v>
-      </c>
-      <c r="I20" t="s">
-        <v>18</v>
-      </c>
-      <c r="J20" t="s">
-        <v>18</v>
-      </c>
-      <c r="K20" t="s">
-        <v>18</v>
-      </c>
-      <c r="L20" t="s">
-        <v>18</v>
-      </c>
-      <c r="M20" t="s">
-        <v>18</v>
-      </c>
-      <c r="N20" t="s">
-        <v>18</v>
-      </c>
-      <c r="O20" t="s">
-        <v>18</v>
-      </c>
-      <c r="P20" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q20" t="s">
-        <v>19</v>
+      <c r="B20">
+        <v>4000</v>
+      </c>
+      <c r="C20">
+        <v>4000</v>
+      </c>
+      <c r="D20">
+        <v>4000</v>
+      </c>
+      <c r="E20">
+        <v>4000</v>
+      </c>
+      <c r="F20">
+        <v>4000</v>
+      </c>
+      <c r="G20">
+        <v>4000</v>
+      </c>
+      <c r="H20">
+        <v>4000</v>
+      </c>
+      <c r="I20">
+        <v>4000</v>
+      </c>
+      <c r="J20">
+        <v>4000</v>
+      </c>
+      <c r="K20">
+        <v>4000</v>
+      </c>
+      <c r="L20">
+        <v>4000</v>
+      </c>
+      <c r="M20">
+        <v>4000</v>
+      </c>
+      <c r="N20">
+        <v>4000</v>
+      </c>
+      <c r="O20">
+        <v>4000</v>
+      </c>
+      <c r="P20">
+        <v>4000</v>
+      </c>
+      <c r="Q20">
+        <v>4000</v>
       </c>
     </row>
     <row r="21" spans="1:17">
       <c r="A21" t="s">
         <v>109</v>
       </c>
-      <c r="B21" t="s">
-        <v>18</v>
-      </c>
-      <c r="C21" t="s">
-        <v>18</v>
-      </c>
-      <c r="D21" t="s">
-        <v>18</v>
-      </c>
-      <c r="E21" t="s">
-        <v>18</v>
-      </c>
-      <c r="F21" t="s">
-        <v>18</v>
-      </c>
-      <c r="G21" t="s">
-        <v>18</v>
-      </c>
-      <c r="H21" t="s">
-        <v>18</v>
-      </c>
-      <c r="I21" t="s">
-        <v>18</v>
-      </c>
-      <c r="J21" t="s">
-        <v>18</v>
-      </c>
-      <c r="K21" t="s">
-        <v>18</v>
-      </c>
-      <c r="L21" t="s">
-        <v>18</v>
-      </c>
-      <c r="M21" t="s">
-        <v>18</v>
-      </c>
-      <c r="N21" t="s">
-        <v>18</v>
-      </c>
-      <c r="O21" t="s">
-        <v>18</v>
-      </c>
-      <c r="P21" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>19</v>
+      <c r="B21">
+        <v>4000</v>
+      </c>
+      <c r="C21">
+        <v>4000</v>
+      </c>
+      <c r="D21">
+        <v>4000</v>
+      </c>
+      <c r="E21">
+        <v>4000</v>
+      </c>
+      <c r="F21">
+        <v>4000</v>
+      </c>
+      <c r="G21">
+        <v>4000</v>
+      </c>
+      <c r="H21">
+        <v>4000</v>
+      </c>
+      <c r="I21">
+        <v>4000</v>
+      </c>
+      <c r="J21">
+        <v>4000</v>
+      </c>
+      <c r="K21">
+        <v>4000</v>
+      </c>
+      <c r="L21">
+        <v>4000</v>
+      </c>
+      <c r="M21">
+        <v>4000</v>
+      </c>
+      <c r="N21">
+        <v>4000</v>
+      </c>
+      <c r="O21">
+        <v>4000</v>
+      </c>
+      <c r="P21">
+        <v>4000</v>
+      </c>
+      <c r="Q21">
+        <v>4000</v>
       </c>
     </row>
     <row r="22" spans="1:17">
       <c r="A22" t="s">
         <v>110</v>
       </c>
-      <c r="B22" t="s">
-        <v>18</v>
-      </c>
-      <c r="C22" t="s">
-        <v>18</v>
-      </c>
-      <c r="D22" t="s">
-        <v>18</v>
-      </c>
-      <c r="E22" t="s">
-        <v>18</v>
-      </c>
-      <c r="F22" t="s">
-        <v>18</v>
-      </c>
-      <c r="G22" t="s">
-        <v>18</v>
-      </c>
-      <c r="H22" t="s">
-        <v>18</v>
-      </c>
-      <c r="I22" t="s">
-        <v>18</v>
-      </c>
-      <c r="J22" t="s">
-        <v>18</v>
-      </c>
-      <c r="K22" t="s">
-        <v>18</v>
-      </c>
-      <c r="L22" t="s">
-        <v>18</v>
-      </c>
-      <c r="M22" t="s">
-        <v>18</v>
-      </c>
-      <c r="N22" t="s">
-        <v>18</v>
-      </c>
-      <c r="O22" t="s">
-        <v>18</v>
-      </c>
-      <c r="P22" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>19</v>
+      <c r="B22">
+        <v>4000</v>
+      </c>
+      <c r="C22">
+        <v>4000</v>
+      </c>
+      <c r="D22">
+        <v>4000</v>
+      </c>
+      <c r="E22">
+        <v>4000</v>
+      </c>
+      <c r="F22">
+        <v>4000</v>
+      </c>
+      <c r="G22">
+        <v>4000</v>
+      </c>
+      <c r="H22">
+        <v>4000</v>
+      </c>
+      <c r="I22">
+        <v>4000</v>
+      </c>
+      <c r="J22">
+        <v>4000</v>
+      </c>
+      <c r="K22">
+        <v>4000</v>
+      </c>
+      <c r="L22">
+        <v>4000</v>
+      </c>
+      <c r="M22">
+        <v>4000</v>
+      </c>
+      <c r="N22">
+        <v>4000</v>
+      </c>
+      <c r="O22">
+        <v>4000</v>
+      </c>
+      <c r="P22">
+        <v>4000</v>
+      </c>
+      <c r="Q22">
+        <v>4000</v>
       </c>
     </row>
     <row r="23" spans="1:17">
       <c r="A23" t="s">
         <v>111</v>
       </c>
-      <c r="B23" t="s">
-        <v>18</v>
-      </c>
-      <c r="C23" t="s">
-        <v>18</v>
-      </c>
-      <c r="D23" t="s">
-        <v>18</v>
-      </c>
-      <c r="E23" t="s">
-        <v>18</v>
-      </c>
-      <c r="F23" t="s">
-        <v>18</v>
-      </c>
-      <c r="G23" t="s">
-        <v>18</v>
-      </c>
-      <c r="H23" t="s">
-        <v>18</v>
-      </c>
-      <c r="I23" t="s">
-        <v>18</v>
-      </c>
-      <c r="J23" t="s">
-        <v>18</v>
-      </c>
-      <c r="K23" t="s">
-        <v>18</v>
-      </c>
-      <c r="L23" t="s">
-        <v>18</v>
-      </c>
-      <c r="M23" t="s">
-        <v>18</v>
-      </c>
-      <c r="N23" t="s">
-        <v>18</v>
-      </c>
-      <c r="O23" t="s">
-        <v>18</v>
-      </c>
-      <c r="P23" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q23" t="s">
-        <v>19</v>
+      <c r="B23">
+        <v>4000</v>
+      </c>
+      <c r="C23">
+        <v>4000</v>
+      </c>
+      <c r="D23">
+        <v>4000</v>
+      </c>
+      <c r="E23">
+        <v>4000</v>
+      </c>
+      <c r="F23">
+        <v>4000</v>
+      </c>
+      <c r="G23">
+        <v>4000</v>
+      </c>
+      <c r="H23">
+        <v>4000</v>
+      </c>
+      <c r="I23">
+        <v>4000</v>
+      </c>
+      <c r="J23">
+        <v>4000</v>
+      </c>
+      <c r="K23">
+        <v>4000</v>
+      </c>
+      <c r="L23">
+        <v>4000</v>
+      </c>
+      <c r="M23">
+        <v>4000</v>
+      </c>
+      <c r="N23">
+        <v>4000</v>
+      </c>
+      <c r="O23">
+        <v>4000</v>
+      </c>
+      <c r="P23">
+        <v>4000</v>
+      </c>
+      <c r="Q23">
+        <v>4000</v>
       </c>
     </row>
     <row r="24" spans="1:17">
       <c r="A24" t="s">
         <v>112</v>
       </c>
-      <c r="B24" t="s">
-        <v>18</v>
-      </c>
-      <c r="C24" t="s">
-        <v>18</v>
-      </c>
-      <c r="D24" t="s">
-        <v>18</v>
-      </c>
-      <c r="E24" t="s">
-        <v>18</v>
-      </c>
-      <c r="F24" t="s">
-        <v>18</v>
-      </c>
-      <c r="G24" t="s">
-        <v>18</v>
-      </c>
-      <c r="H24" t="s">
-        <v>18</v>
-      </c>
-      <c r="I24" t="s">
-        <v>18</v>
-      </c>
-      <c r="J24" t="s">
-        <v>18</v>
-      </c>
-      <c r="K24" t="s">
-        <v>18</v>
-      </c>
-      <c r="L24" t="s">
-        <v>18</v>
-      </c>
-      <c r="M24" t="s">
-        <v>18</v>
-      </c>
-      <c r="N24" t="s">
-        <v>18</v>
-      </c>
-      <c r="O24" t="s">
-        <v>18</v>
-      </c>
-      <c r="P24" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q24" t="s">
-        <v>19</v>
+      <c r="B24">
+        <v>4000</v>
+      </c>
+      <c r="C24">
+        <v>4000</v>
+      </c>
+      <c r="D24">
+        <v>4000</v>
+      </c>
+      <c r="E24">
+        <v>4000</v>
+      </c>
+      <c r="F24">
+        <v>4000</v>
+      </c>
+      <c r="G24">
+        <v>4000</v>
+      </c>
+      <c r="H24">
+        <v>4000</v>
+      </c>
+      <c r="I24">
+        <v>4000</v>
+      </c>
+      <c r="J24">
+        <v>4000</v>
+      </c>
+      <c r="K24">
+        <v>4000</v>
+      </c>
+      <c r="L24">
+        <v>4000</v>
+      </c>
+      <c r="M24">
+        <v>4000</v>
+      </c>
+      <c r="N24">
+        <v>4000</v>
+      </c>
+      <c r="O24">
+        <v>4000</v>
+      </c>
+      <c r="P24">
+        <v>4000</v>
+      </c>
+      <c r="Q24">
+        <v>4000</v>
       </c>
     </row>
     <row r="25" spans="1:17">
       <c r="A25" t="s">
         <v>113</v>
       </c>
-      <c r="B25" t="s">
-        <v>18</v>
-      </c>
-      <c r="C25" t="s">
-        <v>18</v>
-      </c>
-      <c r="D25" t="s">
-        <v>18</v>
-      </c>
-      <c r="E25" t="s">
-        <v>18</v>
-      </c>
-      <c r="F25" t="s">
-        <v>18</v>
-      </c>
-      <c r="G25" t="s">
-        <v>18</v>
-      </c>
-      <c r="H25" t="s">
-        <v>18</v>
-      </c>
-      <c r="I25" t="s">
-        <v>18</v>
-      </c>
-      <c r="J25" t="s">
-        <v>18</v>
-      </c>
-      <c r="K25" t="s">
-        <v>18</v>
-      </c>
-      <c r="L25" t="s">
-        <v>18</v>
-      </c>
-      <c r="M25" t="s">
-        <v>18</v>
-      </c>
-      <c r="N25" t="s">
-        <v>18</v>
-      </c>
-      <c r="O25" t="s">
-        <v>18</v>
-      </c>
-      <c r="P25" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q25" t="s">
-        <v>19</v>
+      <c r="B25">
+        <v>4000</v>
+      </c>
+      <c r="C25">
+        <v>4000</v>
+      </c>
+      <c r="D25">
+        <v>4000</v>
+      </c>
+      <c r="E25">
+        <v>4000</v>
+      </c>
+      <c r="F25">
+        <v>4000</v>
+      </c>
+      <c r="G25">
+        <v>4000</v>
+      </c>
+      <c r="H25">
+        <v>4000</v>
+      </c>
+      <c r="I25">
+        <v>4000</v>
+      </c>
+      <c r="J25">
+        <v>4000</v>
+      </c>
+      <c r="K25">
+        <v>4000</v>
+      </c>
+      <c r="L25">
+        <v>4000</v>
+      </c>
+      <c r="M25">
+        <v>4000</v>
+      </c>
+      <c r="N25">
+        <v>4000</v>
+      </c>
+      <c r="O25">
+        <v>4000</v>
+      </c>
+      <c r="P25">
+        <v>4000</v>
+      </c>
+      <c r="Q25">
+        <v>4000</v>
       </c>
     </row>
     <row r="26" spans="1:17">
       <c r="A26" t="s">
         <v>114</v>
       </c>
-      <c r="B26" t="s">
-        <v>18</v>
-      </c>
-      <c r="C26" t="s">
-        <v>18</v>
-      </c>
-      <c r="D26" t="s">
-        <v>18</v>
-      </c>
-      <c r="E26" t="s">
-        <v>18</v>
-      </c>
-      <c r="F26" t="s">
-        <v>18</v>
-      </c>
-      <c r="G26" t="s">
-        <v>18</v>
-      </c>
-      <c r="H26" t="s">
-        <v>18</v>
-      </c>
-      <c r="I26" t="s">
-        <v>18</v>
-      </c>
-      <c r="J26" t="s">
-        <v>18</v>
-      </c>
-      <c r="K26" t="s">
-        <v>18</v>
-      </c>
-      <c r="L26" t="s">
-        <v>18</v>
-      </c>
-      <c r="M26" t="s">
-        <v>18</v>
-      </c>
-      <c r="N26" t="s">
-        <v>18</v>
-      </c>
-      <c r="O26" t="s">
-        <v>18</v>
-      </c>
-      <c r="P26" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q26" t="s">
-        <v>19</v>
+      <c r="B26">
+        <v>4000</v>
+      </c>
+      <c r="C26">
+        <v>4000</v>
+      </c>
+      <c r="D26">
+        <v>4000</v>
+      </c>
+      <c r="E26">
+        <v>4000</v>
+      </c>
+      <c r="F26">
+        <v>4000</v>
+      </c>
+      <c r="G26">
+        <v>4000</v>
+      </c>
+      <c r="H26">
+        <v>4000</v>
+      </c>
+      <c r="I26">
+        <v>4000</v>
+      </c>
+      <c r="J26">
+        <v>4000</v>
+      </c>
+      <c r="K26">
+        <v>4000</v>
+      </c>
+      <c r="L26">
+        <v>4000</v>
+      </c>
+      <c r="M26">
+        <v>4000</v>
+      </c>
+      <c r="N26">
+        <v>4000</v>
+      </c>
+      <c r="O26">
+        <v>4000</v>
+      </c>
+      <c r="P26">
+        <v>4000</v>
+      </c>
+      <c r="Q26">
+        <v>4000</v>
       </c>
     </row>
     <row r="27" spans="1:17">
       <c r="A27" t="s">
         <v>115</v>
       </c>
-      <c r="B27" t="s">
-        <v>18</v>
-      </c>
-      <c r="C27" t="s">
-        <v>18</v>
-      </c>
-      <c r="D27" t="s">
-        <v>18</v>
-      </c>
-      <c r="E27" t="s">
-        <v>18</v>
-      </c>
-      <c r="F27" t="s">
-        <v>18</v>
-      </c>
-      <c r="G27" t="s">
-        <v>18</v>
-      </c>
-      <c r="H27" t="s">
-        <v>18</v>
-      </c>
-      <c r="I27" t="s">
-        <v>18</v>
-      </c>
-      <c r="J27" t="s">
-        <v>18</v>
-      </c>
-      <c r="K27" t="s">
-        <v>18</v>
-      </c>
-      <c r="L27" t="s">
-        <v>18</v>
-      </c>
-      <c r="M27" t="s">
-        <v>18</v>
-      </c>
-      <c r="N27" t="s">
-        <v>18</v>
-      </c>
-      <c r="O27" t="s">
-        <v>18</v>
-      </c>
-      <c r="P27" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q27" t="s">
-        <v>19</v>
+      <c r="B27">
+        <v>4000</v>
+      </c>
+      <c r="C27">
+        <v>4000</v>
+      </c>
+      <c r="D27">
+        <v>4000</v>
+      </c>
+      <c r="E27">
+        <v>4000</v>
+      </c>
+      <c r="F27">
+        <v>4000</v>
+      </c>
+      <c r="G27">
+        <v>4000</v>
+      </c>
+      <c r="H27">
+        <v>4000</v>
+      </c>
+      <c r="I27">
+        <v>4000</v>
+      </c>
+      <c r="J27">
+        <v>4000</v>
+      </c>
+      <c r="K27">
+        <v>4000</v>
+      </c>
+      <c r="L27">
+        <v>4000</v>
+      </c>
+      <c r="M27">
+        <v>4000</v>
+      </c>
+      <c r="N27">
+        <v>4000</v>
+      </c>
+      <c r="O27">
+        <v>4000</v>
+      </c>
+      <c r="P27">
+        <v>4000</v>
+      </c>
+      <c r="Q27">
+        <v>4000</v>
       </c>
     </row>
     <row r="28" spans="1:17">
       <c r="A28" t="s">
         <v>116</v>
       </c>
-      <c r="B28" t="s">
-        <v>18</v>
-      </c>
-      <c r="C28" t="s">
-        <v>18</v>
-      </c>
-      <c r="D28" t="s">
-        <v>18</v>
-      </c>
-      <c r="E28" t="s">
-        <v>18</v>
-      </c>
-      <c r="F28" t="s">
-        <v>18</v>
-      </c>
-      <c r="G28" t="s">
-        <v>18</v>
-      </c>
-      <c r="H28" t="s">
-        <v>18</v>
-      </c>
-      <c r="I28" t="s">
-        <v>18</v>
-      </c>
-      <c r="J28" t="s">
-        <v>18</v>
-      </c>
-      <c r="K28" t="s">
-        <v>18</v>
-      </c>
-      <c r="L28" t="s">
-        <v>18</v>
-      </c>
-      <c r="M28" t="s">
-        <v>18</v>
-      </c>
-      <c r="N28" t="s">
-        <v>18</v>
-      </c>
-      <c r="O28" t="s">
-        <v>18</v>
-      </c>
-      <c r="P28" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q28" t="s">
-        <v>19</v>
+      <c r="B28">
+        <v>4000</v>
+      </c>
+      <c r="C28">
+        <v>4000</v>
+      </c>
+      <c r="D28">
+        <v>4000</v>
+      </c>
+      <c r="E28">
+        <v>4000</v>
+      </c>
+      <c r="F28">
+        <v>4000</v>
+      </c>
+      <c r="G28">
+        <v>4000</v>
+      </c>
+      <c r="H28">
+        <v>4000</v>
+      </c>
+      <c r="I28">
+        <v>4000</v>
+      </c>
+      <c r="J28">
+        <v>4000</v>
+      </c>
+      <c r="K28">
+        <v>4000</v>
+      </c>
+      <c r="L28">
+        <v>4000</v>
+      </c>
+      <c r="M28">
+        <v>4000</v>
+      </c>
+      <c r="N28">
+        <v>4000</v>
+      </c>
+      <c r="O28">
+        <v>4000</v>
+      </c>
+      <c r="P28">
+        <v>4000</v>
+      </c>
+      <c r="Q28">
+        <v>4000</v>
       </c>
     </row>
     <row r="29" spans="1:17">
       <c r="A29" t="s">
         <v>117</v>
       </c>
-      <c r="B29" t="s">
-        <v>18</v>
-      </c>
-      <c r="C29" t="s">
-        <v>18</v>
-      </c>
-      <c r="D29" t="s">
-        <v>18</v>
-      </c>
-      <c r="E29" t="s">
-        <v>18</v>
-      </c>
-      <c r="F29" t="s">
-        <v>18</v>
-      </c>
-      <c r="G29" t="s">
-        <v>18</v>
-      </c>
-      <c r="H29" t="s">
-        <v>18</v>
-      </c>
-      <c r="I29" t="s">
-        <v>18</v>
-      </c>
-      <c r="J29" t="s">
-        <v>18</v>
-      </c>
-      <c r="K29" t="s">
-        <v>18</v>
-      </c>
-      <c r="L29" t="s">
-        <v>18</v>
-      </c>
-      <c r="M29" t="s">
-        <v>18</v>
-      </c>
-      <c r="N29" t="s">
-        <v>18</v>
-      </c>
-      <c r="O29" t="s">
-        <v>18</v>
-      </c>
-      <c r="P29" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q29" t="s">
-        <v>19</v>
+      <c r="B29">
+        <v>4000</v>
+      </c>
+      <c r="C29">
+        <v>4000</v>
+      </c>
+      <c r="D29">
+        <v>4000</v>
+      </c>
+      <c r="E29">
+        <v>4000</v>
+      </c>
+      <c r="F29">
+        <v>4000</v>
+      </c>
+      <c r="G29">
+        <v>4000</v>
+      </c>
+      <c r="H29">
+        <v>4000</v>
+      </c>
+      <c r="I29">
+        <v>4000</v>
+      </c>
+      <c r="J29">
+        <v>4000</v>
+      </c>
+      <c r="K29">
+        <v>4000</v>
+      </c>
+      <c r="L29">
+        <v>4000</v>
+      </c>
+      <c r="M29">
+        <v>4000</v>
+      </c>
+      <c r="N29">
+        <v>4000</v>
+      </c>
+      <c r="O29">
+        <v>4000</v>
+      </c>
+      <c r="P29">
+        <v>4000</v>
+      </c>
+      <c r="Q29">
+        <v>4000</v>
       </c>
     </row>
     <row r="30" spans="1:17">
       <c r="A30" t="s">
         <v>118</v>
       </c>
-      <c r="B30" t="s">
-        <v>18</v>
-      </c>
-      <c r="C30" t="s">
-        <v>18</v>
-      </c>
-      <c r="D30" t="s">
-        <v>18</v>
-      </c>
-      <c r="E30" t="s">
-        <v>18</v>
-      </c>
-      <c r="F30" t="s">
-        <v>18</v>
-      </c>
-      <c r="G30" t="s">
-        <v>18</v>
-      </c>
-      <c r="H30" t="s">
-        <v>18</v>
-      </c>
-      <c r="I30" t="s">
-        <v>18</v>
-      </c>
-      <c r="J30" t="s">
-        <v>18</v>
-      </c>
-      <c r="K30" t="s">
-        <v>18</v>
-      </c>
-      <c r="L30" t="s">
-        <v>18</v>
-      </c>
-      <c r="M30" t="s">
-        <v>18</v>
-      </c>
-      <c r="N30" t="s">
-        <v>18</v>
-      </c>
-      <c r="O30" t="s">
-        <v>18</v>
-      </c>
-      <c r="P30" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q30" t="s">
-        <v>19</v>
+      <c r="B30">
+        <v>4000</v>
+      </c>
+      <c r="C30">
+        <v>4000</v>
+      </c>
+      <c r="D30">
+        <v>4000</v>
+      </c>
+      <c r="E30">
+        <v>4000</v>
+      </c>
+      <c r="F30">
+        <v>4000</v>
+      </c>
+      <c r="G30">
+        <v>4000</v>
+      </c>
+      <c r="H30">
+        <v>4000</v>
+      </c>
+      <c r="I30">
+        <v>4000</v>
+      </c>
+      <c r="J30">
+        <v>4000</v>
+      </c>
+      <c r="K30">
+        <v>4000</v>
+      </c>
+      <c r="L30">
+        <v>4000</v>
+      </c>
+      <c r="M30">
+        <v>4000</v>
+      </c>
+      <c r="N30">
+        <v>4000</v>
+      </c>
+      <c r="O30">
+        <v>4000</v>
+      </c>
+      <c r="P30">
+        <v>4000</v>
+      </c>
+      <c r="Q30">
+        <v>4000</v>
       </c>
     </row>
     <row r="31" spans="1:17">
       <c r="A31" t="s">
         <v>119</v>
       </c>
-      <c r="B31" t="s">
-        <v>18</v>
-      </c>
-      <c r="C31" t="s">
-        <v>18</v>
-      </c>
-      <c r="D31" t="s">
-        <v>18</v>
-      </c>
-      <c r="E31" t="s">
-        <v>18</v>
-      </c>
-      <c r="F31" t="s">
-        <v>18</v>
-      </c>
-      <c r="G31" t="s">
-        <v>18</v>
-      </c>
-      <c r="H31" t="s">
-        <v>18</v>
-      </c>
-      <c r="I31" t="s">
-        <v>18</v>
-      </c>
-      <c r="J31" t="s">
-        <v>18</v>
-      </c>
-      <c r="K31" t="s">
-        <v>18</v>
-      </c>
-      <c r="L31" t="s">
-        <v>18</v>
-      </c>
-      <c r="M31" t="s">
-        <v>18</v>
-      </c>
-      <c r="N31" t="s">
-        <v>18</v>
-      </c>
-      <c r="O31" t="s">
-        <v>18</v>
-      </c>
-      <c r="P31" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q31" t="s">
-        <v>19</v>
+      <c r="B31">
+        <v>4000</v>
+      </c>
+      <c r="C31">
+        <v>4000</v>
+      </c>
+      <c r="D31">
+        <v>4000</v>
+      </c>
+      <c r="E31">
+        <v>4000</v>
+      </c>
+      <c r="F31">
+        <v>4000</v>
+      </c>
+      <c r="G31">
+        <v>4000</v>
+      </c>
+      <c r="H31">
+        <v>4000</v>
+      </c>
+      <c r="I31">
+        <v>4000</v>
+      </c>
+      <c r="J31">
+        <v>4000</v>
+      </c>
+      <c r="K31">
+        <v>4000</v>
+      </c>
+      <c r="L31">
+        <v>4000</v>
+      </c>
+      <c r="M31">
+        <v>4000</v>
+      </c>
+      <c r="N31">
+        <v>4000</v>
+      </c>
+      <c r="O31">
+        <v>4000</v>
+      </c>
+      <c r="P31">
+        <v>4000</v>
+      </c>
+      <c r="Q31">
+        <v>4000</v>
       </c>
     </row>
     <row r="32" spans="1:17">
       <c r="A32" t="s">
         <v>120</v>
       </c>
-      <c r="B32" t="s">
-        <v>18</v>
-      </c>
-      <c r="C32" t="s">
-        <v>18</v>
-      </c>
-      <c r="D32" t="s">
-        <v>18</v>
-      </c>
-      <c r="E32" t="s">
-        <v>18</v>
-      </c>
-      <c r="F32" t="s">
-        <v>18</v>
-      </c>
-      <c r="G32" t="s">
-        <v>18</v>
-      </c>
-      <c r="H32" t="s">
-        <v>18</v>
-      </c>
-      <c r="I32" t="s">
-        <v>18</v>
-      </c>
-      <c r="J32" t="s">
-        <v>18</v>
-      </c>
-      <c r="K32" t="s">
-        <v>18</v>
-      </c>
-      <c r="L32" t="s">
-        <v>18</v>
-      </c>
-      <c r="M32" t="s">
-        <v>18</v>
-      </c>
-      <c r="N32" t="s">
-        <v>18</v>
-      </c>
-      <c r="O32" t="s">
-        <v>18</v>
-      </c>
-      <c r="P32" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q32" t="s">
-        <v>19</v>
+      <c r="B32">
+        <v>4000</v>
+      </c>
+      <c r="C32">
+        <v>4000</v>
+      </c>
+      <c r="D32">
+        <v>4000</v>
+      </c>
+      <c r="E32">
+        <v>4000</v>
+      </c>
+      <c r="F32">
+        <v>4000</v>
+      </c>
+      <c r="G32">
+        <v>4000</v>
+      </c>
+      <c r="H32">
+        <v>4000</v>
+      </c>
+      <c r="I32">
+        <v>4000</v>
+      </c>
+      <c r="J32">
+        <v>4000</v>
+      </c>
+      <c r="K32">
+        <v>4000</v>
+      </c>
+      <c r="L32">
+        <v>4000</v>
+      </c>
+      <c r="M32">
+        <v>4000</v>
+      </c>
+      <c r="N32">
+        <v>4000</v>
+      </c>
+      <c r="O32">
+        <v>4000</v>
+      </c>
+      <c r="P32">
+        <v>4000</v>
+      </c>
+      <c r="Q32">
+        <v>4000</v>
       </c>
     </row>
     <row r="33" spans="1:17">
       <c r="A33" t="s">
         <v>121</v>
       </c>
-      <c r="B33" t="s">
-        <v>18</v>
-      </c>
-      <c r="C33" t="s">
-        <v>18</v>
-      </c>
-      <c r="D33" t="s">
-        <v>18</v>
-      </c>
-      <c r="E33" t="s">
-        <v>18</v>
-      </c>
-      <c r="F33" t="s">
-        <v>18</v>
-      </c>
-      <c r="G33" t="s">
-        <v>18</v>
-      </c>
-      <c r="H33" t="s">
-        <v>18</v>
-      </c>
-      <c r="I33" t="s">
-        <v>18</v>
-      </c>
-      <c r="J33" t="s">
-        <v>18</v>
-      </c>
-      <c r="K33" t="s">
-        <v>18</v>
-      </c>
-      <c r="L33" t="s">
-        <v>18</v>
-      </c>
-      <c r="M33" t="s">
-        <v>18</v>
-      </c>
-      <c r="N33" t="s">
-        <v>18</v>
-      </c>
-      <c r="O33" t="s">
-        <v>18</v>
-      </c>
-      <c r="P33" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q33" t="s">
-        <v>19</v>
+      <c r="B33">
+        <v>4000</v>
+      </c>
+      <c r="C33">
+        <v>4000</v>
+      </c>
+      <c r="D33">
+        <v>4000</v>
+      </c>
+      <c r="E33">
+        <v>4000</v>
+      </c>
+      <c r="F33">
+        <v>4000</v>
+      </c>
+      <c r="G33">
+        <v>4000</v>
+      </c>
+      <c r="H33">
+        <v>4000</v>
+      </c>
+      <c r="I33">
+        <v>4000</v>
+      </c>
+      <c r="J33">
+        <v>4000</v>
+      </c>
+      <c r="K33">
+        <v>4000</v>
+      </c>
+      <c r="L33">
+        <v>4000</v>
+      </c>
+      <c r="M33">
+        <v>4000</v>
+      </c>
+      <c r="N33">
+        <v>4000</v>
+      </c>
+      <c r="O33">
+        <v>4000</v>
+      </c>
+      <c r="P33">
+        <v>4000</v>
+      </c>
+      <c r="Q33">
+        <v>4000</v>
       </c>
     </row>
     <row r="34" spans="1:17">
       <c r="A34" t="s">
         <v>122</v>
       </c>
-      <c r="B34" t="s">
-        <v>18</v>
-      </c>
-      <c r="C34" t="s">
-        <v>18</v>
-      </c>
-      <c r="D34" t="s">
-        <v>18</v>
-      </c>
-      <c r="E34" t="s">
-        <v>18</v>
-      </c>
-      <c r="F34" t="s">
-        <v>18</v>
-      </c>
-      <c r="G34" t="s">
-        <v>18</v>
-      </c>
-      <c r="H34" t="s">
-        <v>18</v>
-      </c>
-      <c r="I34" t="s">
-        <v>18</v>
-      </c>
-      <c r="J34" t="s">
-        <v>18</v>
-      </c>
-      <c r="K34" t="s">
-        <v>18</v>
-      </c>
-      <c r="L34" t="s">
-        <v>18</v>
-      </c>
-      <c r="M34" t="s">
-        <v>18</v>
-      </c>
-      <c r="N34" t="s">
-        <v>18</v>
-      </c>
-      <c r="O34" t="s">
-        <v>18</v>
-      </c>
-      <c r="P34" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q34" t="s">
-        <v>19</v>
+      <c r="B34">
+        <v>4000</v>
+      </c>
+      <c r="C34">
+        <v>4000</v>
+      </c>
+      <c r="D34">
+        <v>4000</v>
+      </c>
+      <c r="E34">
+        <v>4000</v>
+      </c>
+      <c r="F34">
+        <v>4000</v>
+      </c>
+      <c r="G34">
+        <v>4000</v>
+      </c>
+      <c r="H34">
+        <v>4000</v>
+      </c>
+      <c r="I34">
+        <v>4000</v>
+      </c>
+      <c r="J34">
+        <v>4000</v>
+      </c>
+      <c r="K34">
+        <v>4000</v>
+      </c>
+      <c r="L34">
+        <v>4000</v>
+      </c>
+      <c r="M34">
+        <v>4000</v>
+      </c>
+      <c r="N34">
+        <v>4000</v>
+      </c>
+      <c r="O34">
+        <v>4000</v>
+      </c>
+      <c r="P34">
+        <v>4000</v>
+      </c>
+      <c r="Q34">
+        <v>4000</v>
       </c>
     </row>
     <row r="35" spans="1:17">
       <c r="A35" t="s">
         <v>123</v>
       </c>
-      <c r="B35" t="s">
-        <v>18</v>
-      </c>
-      <c r="C35" t="s">
-        <v>18</v>
-      </c>
-      <c r="D35" t="s">
-        <v>18</v>
-      </c>
-      <c r="E35" t="s">
-        <v>18</v>
-      </c>
-      <c r="F35" t="s">
-        <v>18</v>
-      </c>
-      <c r="G35" t="s">
-        <v>18</v>
-      </c>
-      <c r="H35" t="s">
-        <v>18</v>
-      </c>
-      <c r="I35" t="s">
-        <v>18</v>
-      </c>
-      <c r="J35" t="s">
-        <v>18</v>
-      </c>
-      <c r="K35" t="s">
-        <v>18</v>
-      </c>
-      <c r="L35" t="s">
-        <v>18</v>
-      </c>
-      <c r="M35" t="s">
-        <v>18</v>
-      </c>
-      <c r="N35" t="s">
-        <v>18</v>
-      </c>
-      <c r="O35" t="s">
-        <v>18</v>
-      </c>
-      <c r="P35" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q35" t="s">
-        <v>19</v>
+      <c r="B35">
+        <v>4000</v>
+      </c>
+      <c r="C35">
+        <v>4000</v>
+      </c>
+      <c r="D35">
+        <v>4000</v>
+      </c>
+      <c r="E35">
+        <v>4000</v>
+      </c>
+      <c r="F35">
+        <v>4000</v>
+      </c>
+      <c r="G35">
+        <v>4000</v>
+      </c>
+      <c r="H35">
+        <v>4000</v>
+      </c>
+      <c r="I35">
+        <v>4000</v>
+      </c>
+      <c r="J35">
+        <v>4000</v>
+      </c>
+      <c r="K35">
+        <v>4000</v>
+      </c>
+      <c r="L35">
+        <v>4000</v>
+      </c>
+      <c r="M35">
+        <v>4000</v>
+      </c>
+      <c r="N35">
+        <v>4000</v>
+      </c>
+      <c r="O35">
+        <v>4000</v>
+      </c>
+      <c r="P35">
+        <v>4000</v>
+      </c>
+      <c r="Q35">
+        <v>4000</v>
       </c>
     </row>
     <row r="36" spans="1:17">
       <c r="A36" t="s">
         <v>124</v>
       </c>
-      <c r="B36" t="s">
-        <v>18</v>
-      </c>
-      <c r="C36" t="s">
-        <v>18</v>
-      </c>
-      <c r="D36" t="s">
-        <v>18</v>
-      </c>
-      <c r="E36" t="s">
-        <v>18</v>
-      </c>
-      <c r="F36" t="s">
-        <v>18</v>
-      </c>
-      <c r="G36" t="s">
-        <v>18</v>
-      </c>
-      <c r="H36" t="s">
-        <v>18</v>
-      </c>
-      <c r="I36" t="s">
-        <v>18</v>
-      </c>
-      <c r="J36" t="s">
-        <v>18</v>
-      </c>
-      <c r="K36" t="s">
-        <v>18</v>
-      </c>
-      <c r="L36" t="s">
-        <v>18</v>
-      </c>
-      <c r="M36" t="s">
-        <v>18</v>
-      </c>
-      <c r="N36" t="s">
-        <v>18</v>
-      </c>
-      <c r="O36" t="s">
-        <v>18</v>
-      </c>
-      <c r="P36" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q36" t="s">
-        <v>19</v>
+      <c r="B36">
+        <v>4000</v>
+      </c>
+      <c r="C36">
+        <v>4000</v>
+      </c>
+      <c r="D36">
+        <v>4000</v>
+      </c>
+      <c r="E36">
+        <v>4000</v>
+      </c>
+      <c r="F36">
+        <v>4000</v>
+      </c>
+      <c r="G36">
+        <v>4000</v>
+      </c>
+      <c r="H36">
+        <v>4000</v>
+      </c>
+      <c r="I36">
+        <v>4000</v>
+      </c>
+      <c r="J36">
+        <v>4000</v>
+      </c>
+      <c r="K36">
+        <v>4000</v>
+      </c>
+      <c r="L36">
+        <v>4000</v>
+      </c>
+      <c r="M36">
+        <v>4000</v>
+      </c>
+      <c r="N36">
+        <v>4000</v>
+      </c>
+      <c r="O36">
+        <v>4000</v>
+      </c>
+      <c r="P36">
+        <v>4000</v>
+      </c>
+      <c r="Q36">
+        <v>4000</v>
       </c>
     </row>
     <row r="37" spans="1:17">
       <c r="A37" t="s">
         <v>125</v>
       </c>
-      <c r="B37" t="s">
-        <v>18</v>
-      </c>
-      <c r="C37" t="s">
-        <v>18</v>
-      </c>
-      <c r="D37" t="s">
-        <v>18</v>
-      </c>
-      <c r="E37" t="s">
-        <v>18</v>
-      </c>
-      <c r="F37" t="s">
-        <v>18</v>
-      </c>
-      <c r="G37" t="s">
-        <v>18</v>
-      </c>
-      <c r="H37" t="s">
-        <v>18</v>
-      </c>
-      <c r="I37" t="s">
-        <v>18</v>
-      </c>
-      <c r="J37" t="s">
-        <v>18</v>
-      </c>
-      <c r="K37" t="s">
-        <v>18</v>
-      </c>
-      <c r="L37" t="s">
-        <v>18</v>
-      </c>
-      <c r="M37" t="s">
-        <v>18</v>
-      </c>
-      <c r="N37" t="s">
-        <v>18</v>
-      </c>
-      <c r="O37" t="s">
-        <v>18</v>
-      </c>
-      <c r="P37" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q37" t="s">
-        <v>19</v>
+      <c r="B37">
+        <v>4000</v>
+      </c>
+      <c r="C37">
+        <v>4000</v>
+      </c>
+      <c r="D37">
+        <v>4000</v>
+      </c>
+      <c r="E37">
+        <v>4000</v>
+      </c>
+      <c r="F37">
+        <v>4000</v>
+      </c>
+      <c r="G37">
+        <v>4000</v>
+      </c>
+      <c r="H37">
+        <v>4000</v>
+      </c>
+      <c r="I37">
+        <v>4000</v>
+      </c>
+      <c r="J37">
+        <v>4000</v>
+      </c>
+      <c r="K37">
+        <v>4000</v>
+      </c>
+      <c r="L37">
+        <v>4000</v>
+      </c>
+      <c r="M37">
+        <v>4000</v>
+      </c>
+      <c r="N37">
+        <v>4000</v>
+      </c>
+      <c r="O37">
+        <v>4000</v>
+      </c>
+      <c r="P37">
+        <v>4000</v>
+      </c>
+      <c r="Q37">
+        <v>4000</v>
       </c>
     </row>
     <row r="38" spans="1:17">
       <c r="A38" t="s">
         <v>126</v>
       </c>
-      <c r="B38" t="s">
-        <v>18</v>
-      </c>
-      <c r="C38" t="s">
-        <v>18</v>
-      </c>
-      <c r="D38" t="s">
-        <v>18</v>
-      </c>
-      <c r="E38" t="s">
-        <v>18</v>
-      </c>
-      <c r="F38" t="s">
-        <v>18</v>
-      </c>
-      <c r="G38" t="s">
-        <v>18</v>
-      </c>
-      <c r="H38" t="s">
-        <v>18</v>
-      </c>
-      <c r="I38" t="s">
-        <v>18</v>
-      </c>
-      <c r="J38" t="s">
-        <v>18</v>
-      </c>
-      <c r="K38" t="s">
-        <v>18</v>
-      </c>
-      <c r="L38" t="s">
-        <v>18</v>
-      </c>
-      <c r="M38" t="s">
-        <v>18</v>
-      </c>
-      <c r="N38" t="s">
-        <v>18</v>
-      </c>
-      <c r="O38" t="s">
-        <v>18</v>
-      </c>
-      <c r="P38" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q38" t="s">
-        <v>19</v>
+      <c r="B38">
+        <v>4000</v>
+      </c>
+      <c r="C38">
+        <v>4000</v>
+      </c>
+      <c r="D38">
+        <v>4000</v>
+      </c>
+      <c r="E38">
+        <v>4000</v>
+      </c>
+      <c r="F38">
+        <v>4000</v>
+      </c>
+      <c r="G38">
+        <v>4000</v>
+      </c>
+      <c r="H38">
+        <v>4000</v>
+      </c>
+      <c r="I38">
+        <v>4000</v>
+      </c>
+      <c r="J38">
+        <v>4000</v>
+      </c>
+      <c r="K38">
+        <v>4000</v>
+      </c>
+      <c r="L38">
+        <v>4000</v>
+      </c>
+      <c r="M38">
+        <v>4000</v>
+      </c>
+      <c r="N38">
+        <v>4000</v>
+      </c>
+      <c r="O38">
+        <v>4000</v>
+      </c>
+      <c r="P38">
+        <v>4000</v>
+      </c>
+      <c r="Q38">
+        <v>4000</v>
       </c>
     </row>
     <row r="39" spans="1:17">
       <c r="A39" t="s">
         <v>127</v>
       </c>
-      <c r="B39" t="s">
-        <v>18</v>
-      </c>
-      <c r="C39" t="s">
-        <v>18</v>
-      </c>
-      <c r="D39" t="s">
-        <v>18</v>
-      </c>
-      <c r="E39" t="s">
-        <v>18</v>
-      </c>
-      <c r="F39" t="s">
-        <v>18</v>
-      </c>
-      <c r="G39" t="s">
-        <v>18</v>
-      </c>
-      <c r="H39" t="s">
-        <v>18</v>
-      </c>
-      <c r="I39" t="s">
-        <v>18</v>
-      </c>
-      <c r="J39" t="s">
-        <v>18</v>
-      </c>
-      <c r="K39" t="s">
-        <v>18</v>
-      </c>
-      <c r="L39" t="s">
-        <v>18</v>
-      </c>
-      <c r="M39" t="s">
-        <v>18</v>
-      </c>
-      <c r="N39" t="s">
-        <v>18</v>
-      </c>
-      <c r="O39" t="s">
-        <v>18</v>
-      </c>
-      <c r="P39" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q39" t="s">
-        <v>19</v>
+      <c r="B39">
+        <v>4000</v>
+      </c>
+      <c r="C39">
+        <v>4000</v>
+      </c>
+      <c r="D39">
+        <v>4000</v>
+      </c>
+      <c r="E39">
+        <v>4000</v>
+      </c>
+      <c r="F39">
+        <v>4000</v>
+      </c>
+      <c r="G39">
+        <v>4000</v>
+      </c>
+      <c r="H39">
+        <v>4000</v>
+      </c>
+      <c r="I39">
+        <v>4000</v>
+      </c>
+      <c r="J39">
+        <v>4000</v>
+      </c>
+      <c r="K39">
+        <v>4000</v>
+      </c>
+      <c r="L39">
+        <v>4000</v>
+      </c>
+      <c r="M39">
+        <v>4000</v>
+      </c>
+      <c r="N39">
+        <v>4000</v>
+      </c>
+      <c r="O39">
+        <v>4000</v>
+      </c>
+      <c r="P39">
+        <v>4000</v>
+      </c>
+      <c r="Q39">
+        <v>4000</v>
       </c>
     </row>
     <row r="40" spans="1:17">
       <c r="A40" t="s">
         <v>128</v>
       </c>
-      <c r="B40" t="s">
-        <v>18</v>
-      </c>
-      <c r="C40" t="s">
-        <v>18</v>
-      </c>
-      <c r="D40" t="s">
-        <v>18</v>
-      </c>
-      <c r="E40" t="s">
-        <v>18</v>
-      </c>
-      <c r="F40" t="s">
-        <v>18</v>
-      </c>
-      <c r="G40" t="s">
-        <v>18</v>
-      </c>
-      <c r="H40" t="s">
-        <v>18</v>
-      </c>
-      <c r="I40" t="s">
-        <v>18</v>
-      </c>
-      <c r="J40" t="s">
-        <v>18</v>
-      </c>
-      <c r="K40" t="s">
-        <v>18</v>
-      </c>
-      <c r="L40" t="s">
-        <v>18</v>
-      </c>
-      <c r="M40" t="s">
-        <v>18</v>
-      </c>
-      <c r="N40" t="s">
-        <v>18</v>
-      </c>
-      <c r="O40" t="s">
-        <v>18</v>
-      </c>
-      <c r="P40" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q40" t="s">
-        <v>19</v>
+      <c r="B40">
+        <v>4000</v>
+      </c>
+      <c r="C40">
+        <v>4000</v>
+      </c>
+      <c r="D40">
+        <v>4000</v>
+      </c>
+      <c r="E40">
+        <v>4000</v>
+      </c>
+      <c r="F40">
+        <v>4000</v>
+      </c>
+      <c r="G40">
+        <v>4000</v>
+      </c>
+      <c r="H40">
+        <v>4000</v>
+      </c>
+      <c r="I40">
+        <v>4000</v>
+      </c>
+      <c r="J40">
+        <v>4000</v>
+      </c>
+      <c r="K40">
+        <v>4000</v>
+      </c>
+      <c r="L40">
+        <v>4000</v>
+      </c>
+      <c r="M40">
+        <v>4000</v>
+      </c>
+      <c r="N40">
+        <v>4000</v>
+      </c>
+      <c r="O40">
+        <v>4000</v>
+      </c>
+      <c r="P40">
+        <v>4000</v>
+      </c>
+      <c r="Q40">
+        <v>4000</v>
       </c>
     </row>
     <row r="41" spans="1:17">
       <c r="A41" t="s">
         <v>129</v>
       </c>
-      <c r="B41" t="s">
-        <v>18</v>
-      </c>
-      <c r="C41" t="s">
-        <v>18</v>
-      </c>
-      <c r="D41" t="s">
-        <v>18</v>
-      </c>
-      <c r="E41" t="s">
-        <v>18</v>
-      </c>
-      <c r="F41" t="s">
-        <v>18</v>
-      </c>
-      <c r="G41" t="s">
-        <v>18</v>
-      </c>
-      <c r="H41" t="s">
-        <v>18</v>
-      </c>
-      <c r="I41" t="s">
-        <v>18</v>
-      </c>
-      <c r="J41" t="s">
-        <v>18</v>
-      </c>
-      <c r="K41" t="s">
-        <v>18</v>
-      </c>
-      <c r="L41" t="s">
-        <v>18</v>
-      </c>
-      <c r="M41" t="s">
-        <v>18</v>
-      </c>
-      <c r="N41" t="s">
-        <v>18</v>
-      </c>
-      <c r="O41" t="s">
-        <v>18</v>
-      </c>
-      <c r="P41" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q41" t="s">
-        <v>19</v>
+      <c r="B41">
+        <v>4000</v>
+      </c>
+      <c r="C41">
+        <v>4000</v>
+      </c>
+      <c r="D41">
+        <v>4000</v>
+      </c>
+      <c r="E41">
+        <v>4000</v>
+      </c>
+      <c r="F41">
+        <v>4000</v>
+      </c>
+      <c r="G41">
+        <v>4000</v>
+      </c>
+      <c r="H41">
+        <v>4000</v>
+      </c>
+      <c r="I41">
+        <v>4000</v>
+      </c>
+      <c r="J41">
+        <v>4000</v>
+      </c>
+      <c r="K41">
+        <v>4000</v>
+      </c>
+      <c r="L41">
+        <v>4000</v>
+      </c>
+      <c r="M41">
+        <v>4000</v>
+      </c>
+      <c r="N41">
+        <v>4000</v>
+      </c>
+      <c r="O41">
+        <v>4000</v>
+      </c>
+      <c r="P41">
+        <v>4000</v>
+      </c>
+      <c r="Q41">
+        <v>4000</v>
       </c>
     </row>
     <row r="42" spans="1:17">
       <c r="A42" t="s">
         <v>130</v>
       </c>
-      <c r="B42" t="s">
-        <v>18</v>
-      </c>
-      <c r="C42" t="s">
-        <v>18</v>
-      </c>
-      <c r="D42" t="s">
-        <v>18</v>
-      </c>
-      <c r="E42" t="s">
-        <v>18</v>
-      </c>
-      <c r="F42" t="s">
-        <v>18</v>
-      </c>
-      <c r="G42" t="s">
-        <v>18</v>
-      </c>
-      <c r="H42" t="s">
-        <v>18</v>
-      </c>
-      <c r="I42" t="s">
-        <v>18</v>
-      </c>
-      <c r="J42" t="s">
-        <v>18</v>
-      </c>
-      <c r="K42" t="s">
-        <v>18</v>
-      </c>
-      <c r="L42" t="s">
-        <v>18</v>
-      </c>
-      <c r="M42" t="s">
-        <v>18</v>
-      </c>
-      <c r="N42" t="s">
-        <v>18</v>
-      </c>
-      <c r="O42" t="s">
-        <v>18</v>
-      </c>
-      <c r="P42" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q42" t="s">
-        <v>19</v>
+      <c r="B42">
+        <v>4000</v>
+      </c>
+      <c r="C42">
+        <v>4000</v>
+      </c>
+      <c r="D42">
+        <v>4000</v>
+      </c>
+      <c r="E42">
+        <v>4000</v>
+      </c>
+      <c r="F42">
+        <v>4000</v>
+      </c>
+      <c r="G42">
+        <v>4000</v>
+      </c>
+      <c r="H42">
+        <v>4000</v>
+      </c>
+      <c r="I42">
+        <v>4000</v>
+      </c>
+      <c r="J42">
+        <v>4000</v>
+      </c>
+      <c r="K42">
+        <v>4000</v>
+      </c>
+      <c r="L42">
+        <v>4000</v>
+      </c>
+      <c r="M42">
+        <v>4000</v>
+      </c>
+      <c r="N42">
+        <v>4000</v>
+      </c>
+      <c r="O42">
+        <v>4000</v>
+      </c>
+      <c r="P42">
+        <v>4000</v>
+      </c>
+      <c r="Q42">
+        <v>4000</v>
       </c>
     </row>
     <row r="43" spans="1:17">
       <c r="A43" t="s">
         <v>131</v>
       </c>
-      <c r="B43" t="s">
-        <v>18</v>
-      </c>
-      <c r="C43" t="s">
-        <v>18</v>
-      </c>
-      <c r="D43" t="s">
-        <v>18</v>
-      </c>
-      <c r="E43" t="s">
-        <v>18</v>
-      </c>
-      <c r="F43" t="s">
-        <v>18</v>
-      </c>
-      <c r="G43" t="s">
-        <v>18</v>
-      </c>
-      <c r="H43" t="s">
-        <v>18</v>
-      </c>
-      <c r="I43" t="s">
-        <v>18</v>
-      </c>
-      <c r="J43" t="s">
-        <v>18</v>
-      </c>
-      <c r="K43" t="s">
-        <v>18</v>
-      </c>
-      <c r="L43" t="s">
-        <v>18</v>
-      </c>
-      <c r="M43" t="s">
-        <v>18</v>
-      </c>
-      <c r="N43" t="s">
-        <v>18</v>
-      </c>
-      <c r="O43" t="s">
-        <v>18</v>
-      </c>
-      <c r="P43" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q43" t="s">
-        <v>19</v>
+      <c r="B43">
+        <v>4000</v>
+      </c>
+      <c r="C43">
+        <v>4000</v>
+      </c>
+      <c r="D43">
+        <v>4000</v>
+      </c>
+      <c r="E43">
+        <v>4000</v>
+      </c>
+      <c r="F43">
+        <v>4000</v>
+      </c>
+      <c r="G43">
+        <v>4000</v>
+      </c>
+      <c r="H43">
+        <v>4000</v>
+      </c>
+      <c r="I43">
+        <v>4000</v>
+      </c>
+      <c r="J43">
+        <v>4000</v>
+      </c>
+      <c r="K43">
+        <v>4000</v>
+      </c>
+      <c r="L43">
+        <v>4000</v>
+      </c>
+      <c r="M43">
+        <v>4000</v>
+      </c>
+      <c r="N43">
+        <v>4000</v>
+      </c>
+      <c r="O43">
+        <v>4000</v>
+      </c>
+      <c r="P43">
+        <v>4000</v>
+      </c>
+      <c r="Q43">
+        <v>4000</v>
       </c>
     </row>
     <row r="44" spans="1:17">
       <c r="A44" t="s">
         <v>132</v>
       </c>
-      <c r="B44" t="s">
-        <v>18</v>
-      </c>
-      <c r="C44" t="s">
-        <v>18</v>
-      </c>
-      <c r="D44" t="s">
-        <v>18</v>
-      </c>
-      <c r="E44" t="s">
-        <v>18</v>
-      </c>
-      <c r="F44" t="s">
-        <v>18</v>
-      </c>
-      <c r="G44" t="s">
-        <v>18</v>
-      </c>
-      <c r="H44" t="s">
-        <v>18</v>
-      </c>
-      <c r="I44" t="s">
-        <v>18</v>
-      </c>
-      <c r="J44" t="s">
-        <v>18</v>
-      </c>
-      <c r="K44" t="s">
-        <v>18</v>
-      </c>
-      <c r="L44" t="s">
-        <v>18</v>
-      </c>
-      <c r="M44" t="s">
-        <v>18</v>
-      </c>
-      <c r="N44" t="s">
-        <v>18</v>
-      </c>
-      <c r="O44" t="s">
-        <v>18</v>
-      </c>
-      <c r="P44" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q44" t="s">
-        <v>19</v>
+      <c r="B44">
+        <v>4000</v>
+      </c>
+      <c r="C44">
+        <v>4000</v>
+      </c>
+      <c r="D44">
+        <v>4000</v>
+      </c>
+      <c r="E44">
+        <v>4000</v>
+      </c>
+      <c r="F44">
+        <v>4000</v>
+      </c>
+      <c r="G44">
+        <v>4000</v>
+      </c>
+      <c r="H44">
+        <v>4000</v>
+      </c>
+      <c r="I44">
+        <v>4000</v>
+      </c>
+      <c r="J44">
+        <v>4000</v>
+      </c>
+      <c r="K44">
+        <v>4000</v>
+      </c>
+      <c r="L44">
+        <v>4000</v>
+      </c>
+      <c r="M44">
+        <v>4000</v>
+      </c>
+      <c r="N44">
+        <v>4000</v>
+      </c>
+      <c r="O44">
+        <v>4000</v>
+      </c>
+      <c r="P44">
+        <v>4000</v>
+      </c>
+      <c r="Q44">
+        <v>4000</v>
       </c>
     </row>
   </sheetData>
@@ -16964,7 +16966,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:Q7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2:Q7"/>
     </sheetView>
   </sheetViews>

--- a/server/20대_개표현황.xlsx
+++ b/server/20대_개표현황.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kimtaehyeong/Desktop/presidential-election/server/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE017D6E-FBC8-A143-AB1F-FE12D90F8857}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D5A6039-8AB3-9847-BB43-3462C9E463F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16280" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16280" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="전국" sheetId="1" r:id="rId1"/>
@@ -1269,52 +1269,52 @@
         <v>17</v>
       </c>
       <c r="B2">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="C2">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="D2">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="E2">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="F2">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="G2">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="H2">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="I2">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="J2">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="K2">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="L2">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="M2">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="N2">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="O2">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="P2">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="Q2">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -1322,52 +1322,52 @@
         <v>20</v>
       </c>
       <c r="B3">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="C3">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="D3">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="E3">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="F3">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="G3">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="H3">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="I3">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="J3">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="K3">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="L3">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="M3">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="N3">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="O3">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="P3">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="Q3">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -1375,52 +1375,52 @@
         <v>21</v>
       </c>
       <c r="B4">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="C4">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="D4">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="E4">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="F4">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="G4">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="H4">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="I4">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="J4">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="K4">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="L4">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="M4">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="N4">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="O4">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="P4">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="Q4">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -1428,52 +1428,52 @@
         <v>22</v>
       </c>
       <c r="B5">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="C5">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="D5">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="E5">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="F5">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="G5">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="H5">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="I5">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="J5">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="K5">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="L5">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="M5">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="N5">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="O5">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="P5">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="Q5">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1481,52 +1481,52 @@
         <v>23</v>
       </c>
       <c r="B6">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="C6">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="D6">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="E6">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="F6">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="G6">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="H6">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="I6">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="J6">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="K6">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="L6">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="M6">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="N6">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="O6">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="P6">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="Q6">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1534,52 +1534,52 @@
         <v>24</v>
       </c>
       <c r="B7">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="C7">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="D7">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="E7">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="F7">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="G7">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="H7">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="I7">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="J7">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="K7">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="L7">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="M7">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="N7">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="O7">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="P7">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="Q7">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1587,52 +1587,52 @@
         <v>25</v>
       </c>
       <c r="B8">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="C8">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="D8">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="E8">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="F8">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="G8">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="H8">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="I8">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="J8">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="K8">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="L8">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="M8">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="N8">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="O8">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="P8">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="Q8">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1640,52 +1640,52 @@
         <v>26</v>
       </c>
       <c r="B9">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="C9">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="D9">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="E9">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="F9">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="G9">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="H9">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="I9">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="J9">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="K9">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="L9">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="M9">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="N9">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="O9">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="P9">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="Q9">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1693,52 +1693,52 @@
         <v>27</v>
       </c>
       <c r="B10">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="C10">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="D10">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="E10">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="F10">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="G10">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="H10">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="I10">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="J10">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="K10">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="L10">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="M10">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="N10">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="O10">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="P10">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="Q10">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1746,52 +1746,52 @@
         <v>28</v>
       </c>
       <c r="B11">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="C11">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="D11">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="E11">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="F11">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="G11">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="H11">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="I11">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="J11">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="K11">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="L11">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="M11">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="N11">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="O11">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="P11">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="Q11">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1799,52 +1799,52 @@
         <v>29</v>
       </c>
       <c r="B12">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="C12">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="D12">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="E12">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="F12">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="G12">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="H12">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="I12">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="J12">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="K12">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="L12">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="M12">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="N12">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="O12">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="P12">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="Q12">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1852,52 +1852,52 @@
         <v>30</v>
       </c>
       <c r="B13">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="C13">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="D13">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="E13">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="F13">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="G13">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="H13">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="I13">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="J13">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="K13">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="L13">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="M13">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="N13">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="O13">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="P13">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="Q13">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1905,52 +1905,52 @@
         <v>31</v>
       </c>
       <c r="B14">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="C14">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="D14">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="E14">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="F14">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="G14">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="H14">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="I14">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="J14">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="K14">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="L14">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="M14">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="N14">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="O14">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="P14">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="Q14">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1958,52 +1958,52 @@
         <v>32</v>
       </c>
       <c r="B15">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="C15">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="D15">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="E15">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="F15">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="G15">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="H15">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="I15">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="J15">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="K15">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="L15">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="M15">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="N15">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="O15">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="P15">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="Q15">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -2011,52 +2011,52 @@
         <v>33</v>
       </c>
       <c r="B16">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="C16">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="D16">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="E16">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="F16">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="G16">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="H16">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="I16">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="J16">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="K16">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="L16">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="M16">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="N16">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="O16">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="P16">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="Q16">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -2064,52 +2064,52 @@
         <v>34</v>
       </c>
       <c r="B17">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="C17">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="D17">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="E17">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="F17">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="G17">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="H17">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="I17">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="J17">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="K17">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="L17">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="M17">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="N17">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="O17">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="P17">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="Q17">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -2117,52 +2117,52 @@
         <v>35</v>
       </c>
       <c r="B18">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="C18">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="D18">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="E18">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="F18">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="G18">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="H18">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="I18">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="J18">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="K18">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="L18">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="M18">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="N18">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="O18">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="P18">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="Q18">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -2170,52 +2170,52 @@
         <v>36</v>
       </c>
       <c r="B19">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="C19">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="D19">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="E19">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="F19">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="G19">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="H19">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="I19">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="J19">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="K19">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="L19">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="M19">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="N19">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="O19">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="P19">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="Q19">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
   </sheetData>
@@ -2228,8 +2228,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:Q44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="T21" sqref="T21"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:Q44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
@@ -2292,52 +2292,52 @@
         <v>17</v>
       </c>
       <c r="B2">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>4000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -2345,52 +2345,52 @@
         <v>91</v>
       </c>
       <c r="B3">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>4000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -2398,52 +2398,52 @@
         <v>92</v>
       </c>
       <c r="B4">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>4000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -2451,52 +2451,52 @@
         <v>93</v>
       </c>
       <c r="B5">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>4000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -2504,52 +2504,52 @@
         <v>94</v>
       </c>
       <c r="B6">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>4000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -2557,52 +2557,52 @@
         <v>95</v>
       </c>
       <c r="B7">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="G7">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="H7">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>4000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -2610,52 +2610,52 @@
         <v>96</v>
       </c>
       <c r="B8">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="C8">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="G8">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="H8">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="P8">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>4000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -2663,52 +2663,52 @@
         <v>97</v>
       </c>
       <c r="B9">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="C9">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="D9">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="G9">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="H9">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="P9">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>4000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -2716,52 +2716,52 @@
         <v>98</v>
       </c>
       <c r="B10">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="C10">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="D10">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="E10">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="G10">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="H10">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="P10">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>4000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -2769,52 +2769,52 @@
         <v>99</v>
       </c>
       <c r="B11">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="C11">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="D11">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="E11">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="G11">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="H11">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>4000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -2822,52 +2822,52 @@
         <v>100</v>
       </c>
       <c r="B12">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="C12">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="D12">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="E12">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="F12">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="G12">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="H12">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="P12">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>4000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2875,52 +2875,52 @@
         <v>101</v>
       </c>
       <c r="B13">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="C13">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="D13">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="E13">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="F13">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="G13">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="H13">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="P13">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>4000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2928,52 +2928,52 @@
         <v>102</v>
       </c>
       <c r="B14">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="C14">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="D14">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="E14">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="F14">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="G14">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="H14">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="P14">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>4000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -2981,52 +2981,52 @@
         <v>103</v>
       </c>
       <c r="B15">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="C15">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="D15">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="E15">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="F15">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="G15">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="H15">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="P15">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>4000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -3034,52 +3034,52 @@
         <v>104</v>
       </c>
       <c r="B16">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="C16">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="D16">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="E16">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="F16">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="G16">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="H16">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="P16">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>4000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -3087,52 +3087,52 @@
         <v>105</v>
       </c>
       <c r="B17">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="C17">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="D17">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="E17">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="F17">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="G17">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="H17">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="P17">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>4000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -3140,52 +3140,52 @@
         <v>106</v>
       </c>
       <c r="B18">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="C18">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="D18">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="E18">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="F18">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="G18">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="H18">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="P18">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>4000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -3193,52 +3193,52 @@
         <v>107</v>
       </c>
       <c r="B19">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="C19">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="D19">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="E19">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="F19">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="G19">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="H19">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="P19">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>4000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -3246,52 +3246,52 @@
         <v>108</v>
       </c>
       <c r="B20">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="C20">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="D20">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="E20">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="F20">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="G20">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="H20">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="P20">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>4000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -3299,52 +3299,52 @@
         <v>109</v>
       </c>
       <c r="B21">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="C21">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="D21">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="E21">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="F21">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="G21">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="H21">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="P21">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>4000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -3352,52 +3352,52 @@
         <v>110</v>
       </c>
       <c r="B22">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="C22">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="D22">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="E22">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="F22">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="G22">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="H22">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="P22">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>4000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -3405,52 +3405,52 @@
         <v>111</v>
       </c>
       <c r="B23">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="C23">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="D23">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="E23">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="F23">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="G23">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="H23">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="P23">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>4000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -3458,52 +3458,52 @@
         <v>112</v>
       </c>
       <c r="B24">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="C24">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="D24">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="E24">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="F24">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="G24">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="H24">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="P24">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>4000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -3511,52 +3511,52 @@
         <v>113</v>
       </c>
       <c r="B25">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="C25">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="D25">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="E25">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="F25">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="G25">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="H25">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="P25">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="Q25">
-        <v>4000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -3564,52 +3564,52 @@
         <v>114</v>
       </c>
       <c r="B26">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="C26">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="D26">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="E26">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="F26">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="G26">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="H26">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="I26">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="J26">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="K26">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="L26">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="M26">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="N26">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="O26">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="P26">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="Q26">
-        <v>4000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -3617,52 +3617,52 @@
         <v>115</v>
       </c>
       <c r="B27">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="C27">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="D27">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="E27">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="F27">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="G27">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="H27">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="I27">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="J27">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="K27">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="L27">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="M27">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="N27">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="O27">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="P27">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="Q27">
-        <v>4000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -3670,52 +3670,52 @@
         <v>116</v>
       </c>
       <c r="B28">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="C28">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="D28">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="E28">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="F28">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="G28">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="H28">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="I28">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="J28">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="K28">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="L28">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="M28">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="N28">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="O28">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="P28">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="Q28">
-        <v>4000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -3723,52 +3723,52 @@
         <v>117</v>
       </c>
       <c r="B29">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="C29">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="D29">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="E29">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="F29">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="G29">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="H29">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="I29">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="J29">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="K29">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="L29">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="M29">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="N29">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="O29">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="P29">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="Q29">
-        <v>4000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -3776,52 +3776,52 @@
         <v>118</v>
       </c>
       <c r="B30">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="C30">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="D30">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="E30">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="F30">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="G30">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="H30">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="I30">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="J30">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="K30">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="L30">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="M30">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="N30">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="O30">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="P30">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="Q30">
-        <v>4000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -3829,52 +3829,52 @@
         <v>119</v>
       </c>
       <c r="B31">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="C31">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="D31">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="E31">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="F31">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="G31">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="H31">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="I31">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="J31">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="K31">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="L31">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="M31">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="N31">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="O31">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="P31">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="Q31">
-        <v>4000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -3882,52 +3882,52 @@
         <v>120</v>
       </c>
       <c r="B32">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="C32">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="D32">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="E32">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="F32">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="G32">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="H32">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="I32">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="J32">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="K32">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="L32">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="M32">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="N32">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="O32">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="P32">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="Q32">
-        <v>4000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -3935,52 +3935,52 @@
         <v>121</v>
       </c>
       <c r="B33">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="C33">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="D33">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="E33">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="F33">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="G33">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="H33">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="I33">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="J33">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="K33">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="L33">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="M33">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="N33">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="O33">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="P33">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="Q33">
-        <v>4000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -3988,52 +3988,52 @@
         <v>122</v>
       </c>
       <c r="B34">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="C34">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="D34">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="E34">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="F34">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="G34">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="H34">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="I34">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="J34">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="K34">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="L34">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="M34">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="N34">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="O34">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="P34">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="Q34">
-        <v>4000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -4041,52 +4041,52 @@
         <v>123</v>
       </c>
       <c r="B35">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="C35">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="D35">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="E35">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="F35">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="G35">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="H35">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="I35">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="J35">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="K35">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="L35">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="M35">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="N35">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="O35">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="P35">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="Q35">
-        <v>4000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -4094,52 +4094,52 @@
         <v>124</v>
       </c>
       <c r="B36">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="C36">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="D36">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="E36">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="F36">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="G36">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="H36">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="I36">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="J36">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="K36">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="L36">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="M36">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="N36">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="O36">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="P36">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="Q36">
-        <v>4000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -4147,52 +4147,52 @@
         <v>125</v>
       </c>
       <c r="B37">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="C37">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="D37">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="E37">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="F37">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="G37">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="H37">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="I37">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="J37">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="K37">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="L37">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="M37">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="N37">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="O37">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="P37">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="Q37">
-        <v>4000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -4200,52 +4200,52 @@
         <v>126</v>
       </c>
       <c r="B38">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="C38">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="D38">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="E38">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="F38">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="G38">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="H38">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="I38">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="J38">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="K38">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="L38">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="M38">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="N38">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="O38">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="P38">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="Q38">
-        <v>4000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -4253,52 +4253,52 @@
         <v>127</v>
       </c>
       <c r="B39">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="C39">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="D39">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="E39">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="F39">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="G39">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="H39">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="I39">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="J39">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="K39">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="L39">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="M39">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="N39">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="O39">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="P39">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="Q39">
-        <v>4000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -4306,52 +4306,52 @@
         <v>128</v>
       </c>
       <c r="B40">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="C40">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="D40">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="E40">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="F40">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="G40">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="H40">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="I40">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="J40">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="K40">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="L40">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="M40">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="N40">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="O40">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="P40">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="Q40">
-        <v>4000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:17">
@@ -4359,52 +4359,52 @@
         <v>129</v>
       </c>
       <c r="B41">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="C41">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="D41">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="E41">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="F41">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="G41">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="H41">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="I41">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="J41">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="K41">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="L41">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="M41">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="N41">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="O41">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="P41">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="Q41">
-        <v>4000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:17">
@@ -4412,52 +4412,52 @@
         <v>130</v>
       </c>
       <c r="B42">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="C42">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="D42">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="E42">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="F42">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="G42">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="H42">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="I42">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="J42">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="K42">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="L42">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="M42">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="N42">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="O42">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="P42">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="Q42">
-        <v>4000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:17">
@@ -4465,52 +4465,52 @@
         <v>131</v>
       </c>
       <c r="B43">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="C43">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="D43">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="E43">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="F43">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="G43">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="H43">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="I43">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="J43">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="K43">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="L43">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="M43">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="N43">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="O43">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="P43">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="Q43">
-        <v>4000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:17">
@@ -4518,52 +4518,52 @@
         <v>132</v>
       </c>
       <c r="B44">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="C44">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="D44">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="E44">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="F44">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="G44">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="H44">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="I44">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="J44">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="K44">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="L44">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="M44">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="N44">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="O44">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="P44">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="Q44">
-        <v>4000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -12359,7 +12359,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:Q4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="V25" sqref="V25"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <sheetData>
@@ -12585,8 +12587,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Q27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:Q27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T17" sqref="T17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
@@ -15545,7 +15547,7 @@
   <dimension ref="A1:Q12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="B2" sqref="B2:Q12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
@@ -15608,52 +15610,52 @@
         <v>17</v>
       </c>
       <c r="B2">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>2000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -15661,52 +15663,52 @@
         <v>39</v>
       </c>
       <c r="B3">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>2000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -15714,52 +15716,52 @@
         <v>64</v>
       </c>
       <c r="B4">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>2000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -15767,52 +15769,52 @@
         <v>80</v>
       </c>
       <c r="B5">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>2000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -15820,52 +15822,52 @@
         <v>81</v>
       </c>
       <c r="B6">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>2000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -15873,52 +15875,52 @@
         <v>82</v>
       </c>
       <c r="B7">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="G7">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="H7">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>2000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -15926,52 +15928,52 @@
         <v>83</v>
       </c>
       <c r="B8">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="C8">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="G8">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="H8">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="P8">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>2000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -15979,52 +15981,52 @@
         <v>84</v>
       </c>
       <c r="B9">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="C9">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="D9">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="G9">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="H9">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="P9">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>2000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -16032,52 +16034,52 @@
         <v>63</v>
       </c>
       <c r="B10">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="C10">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="D10">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="E10">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="G10">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="H10">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="P10">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>2000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -16085,52 +16087,52 @@
         <v>85</v>
       </c>
       <c r="B11">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="C11">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="D11">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="E11">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="G11">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="H11">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>2000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -16138,52 +16140,52 @@
         <v>86</v>
       </c>
       <c r="B12">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="C12">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="D12">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="E12">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="F12">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="G12">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="H12">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="P12">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>2000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -17030,52 +17032,52 @@
         <v>17</v>
       </c>
       <c r="B2">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>3000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -17083,52 +17085,52 @@
         <v>39</v>
       </c>
       <c r="B3">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>3000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -17136,52 +17138,52 @@
         <v>68</v>
       </c>
       <c r="B4">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>3000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -17189,52 +17191,52 @@
         <v>64</v>
       </c>
       <c r="B5">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>3000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -17242,52 +17244,52 @@
         <v>69</v>
       </c>
       <c r="B6">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>3000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -17295,52 +17297,52 @@
         <v>90</v>
       </c>
       <c r="B7">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="G7">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="H7">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>3000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/server/20대_개표현황.xlsx
+++ b/server/20대_개표현황.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kimtaehyeong/Desktop/presidential-election/server/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D5A6039-8AB3-9847-BB43-3462C9E463F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C49AB3C-E327-EC4C-9D46-C14980CBA009}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16280" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="전국" sheetId="1" r:id="rId1"/>
@@ -1205,8 +1205,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:Q19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
@@ -1269,52 +1269,52 @@
         <v>17</v>
       </c>
       <c r="B2">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>1000</v>
+        <v>7000</v>
       </c>
       <c r="E2">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="F2">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="Q2">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -1322,52 +1322,52 @@
         <v>20</v>
       </c>
       <c r="B3">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -1375,52 +1375,52 @@
         <v>21</v>
       </c>
       <c r="B4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -1428,52 +1428,52 @@
         <v>22</v>
       </c>
       <c r="B5">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1481,52 +1481,52 @@
         <v>23</v>
       </c>
       <c r="B6">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1534,52 +1534,52 @@
         <v>24</v>
       </c>
       <c r="B7">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="G7">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="H7">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1587,52 +1587,52 @@
         <v>25</v>
       </c>
       <c r="B8">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="C8">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="G8">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="H8">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="P8">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1640,52 +1640,52 @@
         <v>26</v>
       </c>
       <c r="B9">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="C9">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="D9">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="G9">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="H9">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="P9">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1693,52 +1693,52 @@
         <v>27</v>
       </c>
       <c r="B10">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="C10">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="D10">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="E10">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="G10">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="H10">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="P10">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1746,52 +1746,52 @@
         <v>28</v>
       </c>
       <c r="B11">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="C11">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="D11">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="E11">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="G11">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="H11">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1799,52 +1799,52 @@
         <v>29</v>
       </c>
       <c r="B12">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="C12">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="D12">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="E12">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="F12">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="G12">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="H12">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="P12">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1852,52 +1852,52 @@
         <v>30</v>
       </c>
       <c r="B13">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="C13">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="D13">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="E13">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="F13">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="G13">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="H13">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="P13">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1905,52 +1905,52 @@
         <v>31</v>
       </c>
       <c r="B14">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="C14">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="D14">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="E14">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="F14">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="G14">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="H14">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="P14">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1958,52 +1958,52 @@
         <v>32</v>
       </c>
       <c r="B15">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="C15">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="D15">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="E15">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="F15">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="G15">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="H15">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="P15">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -2011,52 +2011,52 @@
         <v>33</v>
       </c>
       <c r="B16">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="C16">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="D16">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="E16">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="F16">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="G16">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="H16">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="P16">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -2064,52 +2064,52 @@
         <v>34</v>
       </c>
       <c r="B17">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="C17">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="D17">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="E17">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="F17">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="G17">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="H17">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="P17">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -2117,52 +2117,52 @@
         <v>35</v>
       </c>
       <c r="B18">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="C18">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="D18">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="E18">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="F18">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="G18">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="H18">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="P18">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -2170,52 +2170,52 @@
         <v>36</v>
       </c>
       <c r="B19">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="C19">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="D19">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="E19">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="F19">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="G19">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="H19">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="P19">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -12587,7 +12587,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Q27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="T17" sqref="T17"/>
     </sheetView>
   </sheetViews>
